--- a/Avatar_Excel.xlsx
+++ b/Avatar_Excel.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MK\Desktop\Git\Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77883FF3-FD82-4139-A52A-5380F4633EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F68FC4-B4F6-4750-A87F-48031CBB30AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1965" windowWidth="38400" windowHeight="12345" activeTab="1" xr2:uid="{28AF4D6A-79B6-4A32-920C-87AF5D4B5EE8}"/>
+    <workbookView xWindow="-32025" yWindow="3600" windowWidth="38400" windowHeight="12345" xr2:uid="{28AF4D6A-79B6-4A32-920C-87AF5D4B5EE8}"/>
   </bookViews>
   <sheets>
-    <sheet name="13티어" sheetId="9" r:id="rId1"/>
-    <sheet name="7티어" sheetId="5" r:id="rId2"/>
+    <sheet name="7티어" sheetId="5" r:id="rId1"/>
+    <sheet name="13티어" sheetId="9" r:id="rId2"/>
     <sheet name="50티어" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1256,11 +1256,391 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBF4859-7F2A-4BF6-8758-2073C0FC7E3F}">
+  <dimension ref="B2:AB13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="13.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="27" width="11.625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="9.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:28" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="3" spans="2:28" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="17">
+        <f>E3</f>
+        <v>40</v>
+      </c>
+      <c r="L6" s="16">
+        <f t="shared" ref="L6:L12" si="0">ROUND(F7/K6,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="5">
+        <f>SUM(L$6:L6)</f>
+        <v>12</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="15">
+        <f>$E$2/6</f>
+        <v>466.66666666666669</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="7">
+        <f>K6</f>
+        <v>40</v>
+      </c>
+      <c r="I7" s="22">
+        <f>ROUND(H7*(6%+1),2)</f>
+        <v>42.4</v>
+      </c>
+      <c r="J7" s="23">
+        <f>L6</f>
+        <v>12</v>
+      </c>
+      <c r="K7" s="18">
+        <f>ROUND(H7*(G8+1),2)</f>
+        <v>38</v>
+      </c>
+      <c r="L7" s="16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="5">
+        <f>SUM(L$6:L7)</f>
+        <v>24</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" ref="F8:F11" si="1">$E$2/6</f>
+        <v>466.66666666666669</v>
+      </c>
+      <c r="G8" s="20">
+        <v>-0.05</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" ref="H8:H13" si="2">K7</f>
+        <v>38</v>
+      </c>
+      <c r="I8" s="22">
+        <f>H7</f>
+        <v>40</v>
+      </c>
+      <c r="J8" s="23">
+        <f t="shared" ref="J8:J11" si="3">L7</f>
+        <v>12</v>
+      </c>
+      <c r="K8" s="18">
+        <f t="shared" ref="K8:K12" si="4">ROUND(H8*(G9+1),2)</f>
+        <v>36.1</v>
+      </c>
+      <c r="L8" s="16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="5">
+        <f>SUM(L$6:L8)</f>
+        <v>37</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="1"/>
+        <v>466.66666666666669</v>
+      </c>
+      <c r="G9" s="20">
+        <v>-0.05</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="2"/>
+        <v>36.1</v>
+      </c>
+      <c r="I9" s="22">
+        <f t="shared" ref="I9:I11" si="5">H8</f>
+        <v>38</v>
+      </c>
+      <c r="J9" s="23">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="K9" s="18">
+        <f t="shared" si="4"/>
+        <v>33.57</v>
+      </c>
+      <c r="L9" s="16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="5">
+        <f>SUM(L$6:L9)</f>
+        <v>51</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="1"/>
+        <v>466.66666666666669</v>
+      </c>
+      <c r="G10" s="20">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="2"/>
+        <v>33.57</v>
+      </c>
+      <c r="I10" s="22">
+        <f t="shared" si="5"/>
+        <v>36.1</v>
+      </c>
+      <c r="J10" s="23">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="K10" s="18">
+        <f t="shared" si="4"/>
+        <v>31.22</v>
+      </c>
+      <c r="L10" s="16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+    </row>
+    <row r="11" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="5">
+        <f>SUM(L$6:L10)</f>
+        <v>66</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="1"/>
+        <v>466.66666666666669</v>
+      </c>
+      <c r="G11" s="20">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="2"/>
+        <v>31.22</v>
+      </c>
+      <c r="I11" s="22">
+        <f t="shared" si="5"/>
+        <v>33.57</v>
+      </c>
+      <c r="J11" s="23">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="K11" s="18">
+        <f t="shared" si="4"/>
+        <v>26.54</v>
+      </c>
+      <c r="L11" s="16">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="5">
+        <f>SUM(L$6:L11)</f>
+        <v>75</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="15">
+        <f>$E$2/6/2</f>
+        <v>233.33333333333334</v>
+      </c>
+      <c r="G12" s="20">
+        <v>-0.15</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="2"/>
+        <v>26.54</v>
+      </c>
+      <c r="I12" s="22">
+        <f>I11</f>
+        <v>33.57</v>
+      </c>
+      <c r="J12" s="23">
+        <f>L11+J11</f>
+        <v>24</v>
+      </c>
+      <c r="K12" s="18">
+        <f t="shared" si="4"/>
+        <v>21.23</v>
+      </c>
+      <c r="L12" s="16">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="5">
+        <f>SUM(L$6:L12)</f>
+        <v>86</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="15">
+        <f>$E$2/6/2</f>
+        <v>233.33333333333334</v>
+      </c>
+      <c r="G13" s="20">
+        <v>-0.2</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="2"/>
+        <v>21.23</v>
+      </c>
+      <c r="I13" s="22">
+        <f>I12</f>
+        <v>33.57</v>
+      </c>
+      <c r="J13" s="23">
+        <f>L12+J12</f>
+        <v>35</v>
+      </c>
+      <c r="K13" s="18">
+        <f>ROUND(H13*(G14+1),2)</f>
+        <v>21.23</v>
+      </c>
+      <c r="L13" s="16">
+        <f>ROUND(F14/K13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{0F71353D-8269-4615-8376-E94C4779CC73}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8F8485-8E02-47D1-9B79-96D42ADC7F29}">
   <dimension ref="B2:AB19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1855,392 +2235,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBF4859-7F2A-4BF6-8758-2073C0FC7E3F}">
-  <dimension ref="B2:AB13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="36.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="13.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="27" width="11.625" style="3" customWidth="1"/>
-    <col min="28" max="28" width="9.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:28" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="8">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="3" spans="2:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="17">
-        <f>E3</f>
-        <v>100</v>
-      </c>
-      <c r="L6" s="16">
-        <f t="shared" ref="L6:L12" si="0">ROUND(F7/K6,0)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="5">
-        <f>SUM(L$6:L6)</f>
-        <v>50</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="15">
-        <f>$E$2/6</f>
-        <v>5000</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="7">
-        <f>K6</f>
-        <v>100</v>
-      </c>
-      <c r="I7" s="22">
-        <f>ROUND(H7*(6%+1),2)</f>
-        <v>106</v>
-      </c>
-      <c r="J7" s="23">
-        <f>L6</f>
-        <v>50</v>
-      </c>
-      <c r="K7" s="18">
-        <f>ROUND(H7*(G8+1),2)</f>
-        <v>95</v>
-      </c>
-      <c r="L7" s="16">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="5">
-        <f>SUM(L$6:L7)</f>
-        <v>103</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="15">
-        <f t="shared" ref="F8:F11" si="1">$E$2/6</f>
-        <v>5000</v>
-      </c>
-      <c r="G8" s="20">
-        <v>-0.05</v>
-      </c>
-      <c r="H8" s="7">
-        <f t="shared" ref="H8:H13" si="2">K7</f>
-        <v>95</v>
-      </c>
-      <c r="I8" s="22">
-        <f>H7</f>
-        <v>100</v>
-      </c>
-      <c r="J8" s="23">
-        <f t="shared" ref="J8:J11" si="3">L7</f>
-        <v>53</v>
-      </c>
-      <c r="K8" s="18">
-        <f t="shared" ref="K8:K12" si="4">ROUND(H8*(G9+1),2)</f>
-        <v>90.25</v>
-      </c>
-      <c r="L8" s="16">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="5">
-        <f>SUM(L$6:L8)</f>
-        <v>158</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="15">
-        <f t="shared" si="1"/>
-        <v>5000</v>
-      </c>
-      <c r="G9" s="20">
-        <v>-0.05</v>
-      </c>
-      <c r="H9" s="7">
-        <f t="shared" si="2"/>
-        <v>90.25</v>
-      </c>
-      <c r="I9" s="22">
-        <f t="shared" ref="I9:I11" si="5">H8</f>
-        <v>95</v>
-      </c>
-      <c r="J9" s="23">
-        <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="K9" s="18">
-        <f t="shared" si="4"/>
-        <v>83.93</v>
-      </c>
-      <c r="L9" s="16">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="5">
-        <f>SUM(L$6:L9)</f>
-        <v>218</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="15">
-        <f t="shared" si="1"/>
-        <v>5000</v>
-      </c>
-      <c r="G10" s="20">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="H10" s="7">
-        <f t="shared" si="2"/>
-        <v>83.93</v>
-      </c>
-      <c r="I10" s="22">
-        <f t="shared" si="5"/>
-        <v>90.25</v>
-      </c>
-      <c r="J10" s="23">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="K10" s="18">
-        <f t="shared" si="4"/>
-        <v>78.05</v>
-      </c>
-      <c r="L10" s="16">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-    </row>
-    <row r="11" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="5">
-        <f>SUM(L$6:L10)</f>
-        <v>282</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="15">
-        <f t="shared" si="1"/>
-        <v>5000</v>
-      </c>
-      <c r="G11" s="20">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="H11" s="7">
-        <f t="shared" si="2"/>
-        <v>78.05</v>
-      </c>
-      <c r="I11" s="22">
-        <f t="shared" si="5"/>
-        <v>83.93</v>
-      </c>
-      <c r="J11" s="23">
-        <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
-      <c r="K11" s="18">
-        <f t="shared" si="4"/>
-        <v>66.34</v>
-      </c>
-      <c r="L11" s="16">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="5">
-        <f>SUM(L$6:L11)</f>
-        <v>320</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="15">
-        <f>$E$2/6/2</f>
-        <v>2500</v>
-      </c>
-      <c r="G12" s="20">
-        <v>-0.15</v>
-      </c>
-      <c r="H12" s="7">
-        <f t="shared" si="2"/>
-        <v>66.34</v>
-      </c>
-      <c r="I12" s="22">
-        <f>I11</f>
-        <v>83.93</v>
-      </c>
-      <c r="J12" s="23">
-        <f>L11+J11</f>
-        <v>102</v>
-      </c>
-      <c r="K12" s="18">
-        <f t="shared" si="4"/>
-        <v>53.07</v>
-      </c>
-      <c r="L12" s="16">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="5">
-        <f>SUM(L$6:L12)</f>
-        <v>367</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="15">
-        <f>$E$2/6/2</f>
-        <v>2500</v>
-      </c>
-      <c r="G13" s="20">
-        <v>-0.2</v>
-      </c>
-      <c r="H13" s="7">
-        <f t="shared" si="2"/>
-        <v>53.07</v>
-      </c>
-      <c r="I13" s="22">
-        <f>I12</f>
-        <v>83.93</v>
-      </c>
-      <c r="J13" s="23">
-        <f>L12+J12</f>
-        <v>149</v>
-      </c>
-      <c r="K13" s="18">
-        <f>ROUND(H13*(G14+1),2)</f>
-        <v>53.07</v>
-      </c>
-      <c r="L13" s="16">
-        <f>ROUND(F14/K13,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{0F71353D-8269-4615-8376-E94C4779CC73}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DD10C0-E1A8-4A88-8899-7356A89A7E74}">
   <dimension ref="C2:AH75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2372,11 +2372,11 @@
       <c r="Q3" s="21"/>
       <c r="R3" s="53">
         <f>W6</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="S3" s="54">
         <f t="shared" ref="S3:S52" si="0">ROUND(M4/R3,0)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="T3" s="24"/>
       <c r="V3" s="38" t="s">
@@ -2396,11 +2396,11 @@
       <c r="AE3" s="36"/>
       <c r="AF3" s="36">
         <f>D13</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AG3" s="40">
         <f>ROUND(AA4/AF3,0)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AH3" s="41"/>
     </row>
@@ -2417,38 +2417,38 @@
       </c>
       <c r="L4" s="6">
         <f>SUM(S$3:S3)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M4" s="15">
         <f>$D$7/50</f>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N4" s="19" t="s">
         <v>65</v>
       </c>
       <c r="O4" s="7">
         <f>R3</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="P4" s="51">
         <f>ROUND(O4*($W$4+1),2)</f>
-        <v>102.5</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="52">
         <f>S3</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="R4" s="55">
         <f t="shared" ref="R4:R52" si="1">ROUND(O4*(N5+1),2)</f>
-        <v>98.5</v>
+        <v>39.4</v>
       </c>
       <c r="S4" s="54">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="T4" s="24">
         <f>(P4-O4)*Q4-(O4*0.07%+P4*0.07%)*Q4</f>
-        <v>9.4329999999999998</v>
+        <v>11.319599999999999</v>
       </c>
       <c r="V4" s="38" t="s">
         <v>74</v>
@@ -2458,41 +2458,41 @@
       </c>
       <c r="Y4" s="40">
         <f>SUM(AG$3:AG3)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Z4" s="43" t="s">
         <v>15</v>
       </c>
       <c r="AA4" s="44">
         <f t="shared" ref="AA4:AA53" si="2">$D$7/72</f>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB4" s="45" t="s">
         <v>65</v>
       </c>
       <c r="AC4" s="46">
         <f>AF3</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AD4" s="46">
         <f>ROUND(AC4*($W$4+1),2)</f>
-        <v>102.5</v>
+        <v>41</v>
       </c>
       <c r="AE4" s="40">
         <f>AG3</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AF4" s="47">
         <f>ROUND(AC4*(AB5+1),2)</f>
-        <v>98.5</v>
+        <v>39.4</v>
       </c>
       <c r="AG4" s="40">
         <f>ROUND(AA5/AF4,0)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AH4" s="41">
         <f>(AD4-AC4)*AE4-(AC4*0.07%+AD4*0.07%)*AE4</f>
-        <v>7.0747499999999999</v>
+        <v>7.5464000000000002</v>
       </c>
     </row>
     <row r="5" spans="3:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2508,11 +2508,11 @@
       </c>
       <c r="L5" s="6">
         <f>SUM(S$3:S4)</f>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="M5" s="15">
         <f t="shared" ref="M5:M53" si="3">$D$7/50</f>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N5" s="19">
         <f>W7</f>
@@ -2520,27 +2520,27 @@
       </c>
       <c r="O5" s="7">
         <f t="shared" ref="O5:O53" si="4">R4</f>
-        <v>98.5</v>
+        <v>39.4</v>
       </c>
       <c r="P5" s="51">
         <f t="shared" ref="P5:P53" si="5">ROUND(O5*($W$4+1),2)</f>
-        <v>100.96</v>
+        <v>40.39</v>
       </c>
       <c r="Q5" s="52">
         <f t="shared" ref="Q5:Q53" si="6">S4</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="R5" s="55">
         <f t="shared" si="1"/>
-        <v>97.02</v>
+        <v>38.81</v>
       </c>
       <c r="S5" s="54">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="T5" s="24">
         <f t="shared" ref="T5:T53" si="7">(P5-O5)*Q5-(O5*0.07%+P5*0.07%)*Q5</f>
-        <v>9.2815119999999744</v>
+        <v>11.209764000000025</v>
       </c>
       <c r="V5" s="38" t="str">
         <f>D6</f>
@@ -2548,18 +2548,18 @@
       </c>
       <c r="W5" s="38">
         <f>D7</f>
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="Y5" s="40">
         <f>SUM(AG$3:AG4)</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="Z5" s="43" t="s">
         <v>16</v>
       </c>
       <c r="AA5" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB5" s="45">
         <f>W3</f>
@@ -2567,27 +2567,27 @@
       </c>
       <c r="AC5" s="46">
         <f t="shared" ref="AC5:AC53" si="8">AF4</f>
-        <v>98.5</v>
+        <v>39.4</v>
       </c>
       <c r="AD5" s="46">
         <f t="shared" ref="AD5:AD53" si="9">ROUND(AC5*($W$4+1),2)</f>
-        <v>100.96</v>
+        <v>40.39</v>
       </c>
       <c r="AE5" s="40">
         <f t="shared" ref="AE5:AE53" si="10">AG4</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AF5" s="47">
         <f t="shared" ref="AF5:AF52" si="11">ROUND(AC5*(AB6+1),2)</f>
-        <v>97.02</v>
+        <v>38.81</v>
       </c>
       <c r="AG5" s="40">
         <f t="shared" ref="AG5:AG52" si="12">ROUND(AA6/AF5,0)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AH5" s="41">
         <f t="shared" ref="AH5:AH53" si="13">(AD5-AC5)*AE5-(AC5*0.07%+AD5*0.07%)*AE5</f>
-        <v>6.9611339999999808</v>
+        <v>7.4731760000000156</v>
       </c>
     </row>
     <row r="6" spans="3:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2609,11 +2609,11 @@
       </c>
       <c r="L6" s="6">
         <f>SUM(S$3:S5)</f>
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="M6" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N6" s="19">
         <f>N5</f>
@@ -2621,27 +2621,27 @@
       </c>
       <c r="O6" s="7">
         <f t="shared" si="4"/>
-        <v>97.02</v>
+        <v>38.81</v>
       </c>
       <c r="P6" s="51">
         <f t="shared" si="5"/>
-        <v>99.45</v>
+        <v>39.78</v>
       </c>
       <c r="Q6" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="R6" s="55">
         <f t="shared" si="1"/>
-        <v>95.56</v>
+        <v>38.229999999999997</v>
       </c>
       <c r="S6" s="54">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="T6" s="24">
         <f t="shared" si="7"/>
-        <v>9.1698840000000281</v>
+        <v>10.979843999999986</v>
       </c>
       <c r="V6" s="38" t="str">
         <f>D12</f>
@@ -2649,18 +2649,18 @@
       </c>
       <c r="W6" s="47">
         <f>ROUND(D13*(1+W2),2)</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="Y6" s="40">
         <f>SUM(AG$3:AG5)</f>
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="Z6" s="43" t="s">
         <v>17</v>
       </c>
       <c r="AA6" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB6" s="45">
         <f>AB5</f>
@@ -2668,43 +2668,43 @@
       </c>
       <c r="AC6" s="46">
         <f t="shared" si="8"/>
-        <v>97.02</v>
+        <v>38.81</v>
       </c>
       <c r="AD6" s="46">
         <f t="shared" si="9"/>
-        <v>99.45</v>
+        <v>39.78</v>
       </c>
       <c r="AE6" s="40">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AF6" s="47">
         <f t="shared" si="11"/>
-        <v>95.56</v>
+        <v>38.229999999999997</v>
       </c>
       <c r="AG6" s="40">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AH6" s="41">
         <f t="shared" si="13"/>
-        <v>6.8774130000000202</v>
+        <v>8.2348829999999893</v>
       </c>
     </row>
     <row r="7" spans="3:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="28"/>
       <c r="D7" s="48">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="31">
         <f>D13</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="32">
         <f>D7</f>
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="I7" s="28"/>
       <c r="K7" s="5" t="s">
@@ -2712,11 +2712,11 @@
       </c>
       <c r="L7" s="6">
         <f>SUM(S$3:S6)</f>
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="M7" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N7" s="19">
         <f t="shared" ref="N7:N53" si="14">N6</f>
@@ -2724,27 +2724,27 @@
       </c>
       <c r="O7" s="7">
         <f t="shared" si="4"/>
-        <v>95.56</v>
+        <v>38.229999999999997</v>
       </c>
       <c r="P7" s="51">
         <f t="shared" si="5"/>
-        <v>97.95</v>
+        <v>39.19</v>
       </c>
       <c r="Q7" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="R7" s="55">
         <f t="shared" si="1"/>
-        <v>94.13</v>
+        <v>37.659999999999997</v>
       </c>
       <c r="S7" s="54">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="T7" s="24">
         <f t="shared" si="7"/>
-        <v>9.0181720000000016</v>
+        <v>11.77547800000001</v>
       </c>
       <c r="V7" s="38" t="str">
         <f>V3</f>
@@ -2756,14 +2756,14 @@
       </c>
       <c r="Y7" s="40">
         <f>SUM(AG$3:AG6)</f>
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="Z7" s="43" t="s">
         <v>18</v>
       </c>
       <c r="AA7" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB7" s="45">
         <f t="shared" ref="AB7:AB53" si="15">AB6</f>
@@ -2771,27 +2771,27 @@
       </c>
       <c r="AC7" s="46">
         <f t="shared" si="8"/>
-        <v>95.56</v>
+        <v>38.229999999999997</v>
       </c>
       <c r="AD7" s="46">
         <f t="shared" si="9"/>
-        <v>97.95</v>
+        <v>39.19</v>
       </c>
       <c r="AE7" s="40">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AF7" s="47">
         <f t="shared" si="11"/>
-        <v>94.13</v>
+        <v>37.659999999999997</v>
       </c>
       <c r="AG7" s="40">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AH7" s="41">
         <f t="shared" si="13"/>
-        <v>6.7636290000000017</v>
+        <v>8.1522540000000081</v>
       </c>
     </row>
     <row r="8" spans="3:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2807,11 +2807,11 @@
       </c>
       <c r="L8" s="6">
         <f>SUM(S$3:S7)</f>
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="M8" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N8" s="19">
         <f t="shared" si="14"/>
@@ -2819,27 +2819,27 @@
       </c>
       <c r="O8" s="7">
         <f t="shared" si="4"/>
-        <v>94.13</v>
+        <v>37.659999999999997</v>
       </c>
       <c r="P8" s="51">
         <f t="shared" si="5"/>
-        <v>96.48</v>
+        <v>38.6</v>
       </c>
       <c r="Q8" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="R8" s="55">
         <f t="shared" si="1"/>
-        <v>92.72</v>
+        <v>37.1</v>
       </c>
       <c r="S8" s="54">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="T8" s="24">
         <f t="shared" si="7"/>
-        <v>8.8662920000000334</v>
+        <v>11.526034000000063</v>
       </c>
       <c r="V8" s="38" t="str">
         <f>V4</f>
@@ -2851,14 +2851,14 @@
       </c>
       <c r="Y8" s="40">
         <f>SUM(AG$3:AG7)</f>
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="Z8" s="43" t="s">
         <v>19</v>
       </c>
       <c r="AA8" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB8" s="45">
         <f t="shared" si="15"/>
@@ -2866,27 +2866,27 @@
       </c>
       <c r="AC8" s="46">
         <f t="shared" si="8"/>
-        <v>94.13</v>
+        <v>37.659999999999997</v>
       </c>
       <c r="AD8" s="46">
         <f t="shared" si="9"/>
-        <v>96.48</v>
+        <v>38.6</v>
       </c>
       <c r="AE8" s="40">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AF8" s="47">
         <f t="shared" si="11"/>
-        <v>92.72</v>
+        <v>37.1</v>
       </c>
       <c r="AG8" s="40">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AH8" s="41">
         <f t="shared" si="13"/>
-        <v>6.6497190000000259</v>
+        <v>7.9795620000000431</v>
       </c>
     </row>
     <row r="9" spans="3:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2908,11 +2908,11 @@
       </c>
       <c r="L9" s="6">
         <f>SUM(S$3:S8)</f>
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="M9" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N9" s="19">
         <f t="shared" si="14"/>
@@ -2920,38 +2920,38 @@
       </c>
       <c r="O9" s="7">
         <f t="shared" si="4"/>
-        <v>92.72</v>
+        <v>37.1</v>
       </c>
       <c r="P9" s="51">
         <f t="shared" si="5"/>
-        <v>95.04</v>
+        <v>38.03</v>
       </c>
       <c r="Q9" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="R9" s="55">
         <f t="shared" si="1"/>
-        <v>91.33</v>
+        <v>36.54</v>
       </c>
       <c r="S9" s="54">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="T9" s="24">
         <f t="shared" si="7"/>
-        <v>8.7542720000000287</v>
+        <v>11.406316999999996</v>
       </c>
       <c r="Y9" s="40">
         <f>SUM(AG$3:AG8)</f>
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="Z9" s="43" t="s">
         <v>20</v>
       </c>
       <c r="AA9" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB9" s="45">
         <f t="shared" si="15"/>
@@ -2959,27 +2959,27 @@
       </c>
       <c r="AC9" s="46">
         <f t="shared" si="8"/>
-        <v>92.72</v>
+        <v>37.1</v>
       </c>
       <c r="AD9" s="46">
         <f t="shared" si="9"/>
-        <v>95.04</v>
+        <v>38.03</v>
       </c>
       <c r="AE9" s="40">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AF9" s="47">
         <f t="shared" si="11"/>
-        <v>91.33</v>
+        <v>36.54</v>
       </c>
       <c r="AG9" s="40">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AH9" s="41">
         <f t="shared" si="13"/>
-        <v>6.5657040000000224</v>
+        <v>7.8966809999999974</v>
       </c>
     </row>
     <row r="10" spans="3:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2990,12 +2990,12 @@
       <c r="E10" s="26"/>
       <c r="F10" s="32">
         <f>VLOOKUP(D10,K4:L13,2,0)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="31">
         <f>R3</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I10" s="28"/>
       <c r="K10" s="5" t="s">
@@ -3003,11 +3003,11 @@
       </c>
       <c r="L10" s="6">
         <f>SUM(S$3:S9)</f>
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="M10" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N10" s="19">
         <f t="shared" si="14"/>
@@ -3015,38 +3015,38 @@
       </c>
       <c r="O10" s="7">
         <f t="shared" si="4"/>
-        <v>91.33</v>
+        <v>36.54</v>
       </c>
       <c r="P10" s="51">
         <f t="shared" si="5"/>
-        <v>93.61</v>
+        <v>37.450000000000003</v>
       </c>
       <c r="Q10" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="R10" s="55">
         <f t="shared" si="1"/>
-        <v>89.96</v>
+        <v>35.99</v>
       </c>
       <c r="S10" s="54">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="T10" s="24">
         <f t="shared" si="7"/>
-        <v>8.6021680000000043</v>
+        <v>11.156691000000048</v>
       </c>
       <c r="Y10" s="40">
         <f>SUM(AG$3:AG9)</f>
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="Z10" s="43" t="s">
         <v>21</v>
       </c>
       <c r="AA10" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB10" s="45">
         <f t="shared" si="15"/>
@@ -3054,27 +3054,27 @@
       </c>
       <c r="AC10" s="46">
         <f t="shared" si="8"/>
-        <v>91.33</v>
+        <v>36.54</v>
       </c>
       <c r="AD10" s="46">
         <f t="shared" si="9"/>
-        <v>93.61</v>
+        <v>37.450000000000003</v>
       </c>
       <c r="AE10" s="40">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AF10" s="47">
         <f t="shared" si="11"/>
-        <v>89.96</v>
+        <v>35.99</v>
       </c>
       <c r="AG10" s="40">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AH10" s="41">
         <f t="shared" si="13"/>
-        <v>6.4516260000000036</v>
+        <v>7.7238630000000335</v>
       </c>
     </row>
     <row r="11" spans="3:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3090,11 +3090,11 @@
       </c>
       <c r="L11" s="6">
         <f>SUM(S$3:S10)</f>
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="M11" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N11" s="19">
         <f t="shared" si="14"/>
@@ -3102,39 +3102,39 @@
       </c>
       <c r="O11" s="7">
         <f t="shared" si="4"/>
-        <v>89.96</v>
+        <v>35.99</v>
       </c>
       <c r="P11" s="51">
         <f t="shared" si="5"/>
-        <v>92.21</v>
+        <v>36.89</v>
       </c>
       <c r="Q11" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="R11" s="55">
         <f t="shared" si="1"/>
-        <v>88.61</v>
+        <v>35.450000000000003</v>
       </c>
       <c r="S11" s="54">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="T11" s="24">
         <f t="shared" si="7"/>
-        <v>8.4899240000000002</v>
+        <v>11.036791999999981</v>
       </c>
       <c r="W11" s="56"/>
       <c r="Y11" s="40">
         <f>SUM(AG$3:AG10)</f>
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="Z11" s="43" t="s">
         <v>22</v>
       </c>
       <c r="AA11" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB11" s="45">
         <f t="shared" si="15"/>
@@ -3142,27 +3142,27 @@
       </c>
       <c r="AC11" s="46">
         <f t="shared" si="8"/>
-        <v>89.96</v>
+        <v>35.99</v>
       </c>
       <c r="AD11" s="46">
         <f t="shared" si="9"/>
-        <v>92.21</v>
+        <v>36.89</v>
       </c>
       <c r="AE11" s="40">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AF11" s="47">
         <f t="shared" si="11"/>
-        <v>88.61</v>
+        <v>35.450000000000003</v>
       </c>
       <c r="AG11" s="40">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AH11" s="41">
         <f t="shared" si="13"/>
-        <v>6.3674429999999997</v>
+        <v>7.640855999999987</v>
       </c>
     </row>
     <row r="12" spans="3:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3180,11 +3180,11 @@
       </c>
       <c r="L12" s="6">
         <f>SUM(S$3:S11)</f>
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="M12" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N12" s="19">
         <f t="shared" si="14"/>
@@ -3192,39 +3192,39 @@
       </c>
       <c r="O12" s="7">
         <f t="shared" si="4"/>
-        <v>88.61</v>
+        <v>35.450000000000003</v>
       </c>
       <c r="P12" s="51">
         <f t="shared" si="5"/>
-        <v>90.83</v>
+        <v>36.340000000000003</v>
       </c>
       <c r="Q12" s="52">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="R12" s="55">
         <f t="shared" si="1"/>
-        <v>87.28</v>
+        <v>34.92</v>
       </c>
       <c r="S12" s="54">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="T12" s="24">
         <f t="shared" si="7"/>
-        <v>10.471959999999994</v>
+        <v>11.756458000000007</v>
       </c>
       <c r="W12" s="57"/>
       <c r="Y12" s="40">
         <f>SUM(AG$3:AG11)</f>
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="Z12" s="43" t="s">
         <v>23</v>
       </c>
       <c r="AA12" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB12" s="45">
         <f t="shared" si="15"/>
@@ -3232,33 +3232,33 @@
       </c>
       <c r="AC12" s="46">
         <f t="shared" si="8"/>
-        <v>88.61</v>
+        <v>35.450000000000003</v>
       </c>
       <c r="AD12" s="46">
         <f t="shared" si="9"/>
-        <v>90.83</v>
+        <v>36.340000000000003</v>
       </c>
       <c r="AE12" s="40">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AF12" s="47">
         <f t="shared" si="11"/>
-        <v>87.28</v>
+        <v>34.92</v>
       </c>
       <c r="AG12" s="40">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AH12" s="41">
         <f t="shared" si="13"/>
-        <v>6.2831759999999965</v>
+        <v>7.5577230000000046</v>
       </c>
     </row>
     <row r="13" spans="3:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="28"/>
       <c r="D13" s="50">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="28"/>
@@ -3270,11 +3270,11 @@
       </c>
       <c r="L13" s="6">
         <f>SUM(S$3:S12)</f>
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="M13" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N13" s="19">
         <f t="shared" si="14"/>
@@ -3282,38 +3282,38 @@
       </c>
       <c r="O13" s="7">
         <f t="shared" si="4"/>
-        <v>87.28</v>
+        <v>34.92</v>
       </c>
       <c r="P13" s="51">
         <f t="shared" si="5"/>
-        <v>89.46</v>
+        <v>35.79</v>
       </c>
       <c r="Q13" s="52">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="R13" s="55">
         <f t="shared" si="1"/>
-        <v>85.97</v>
+        <v>34.4</v>
       </c>
       <c r="S13" s="54">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="T13" s="24">
         <f t="shared" si="7"/>
-        <v>10.281409999999964</v>
+        <v>11.487041999999963</v>
       </c>
       <c r="Y13" s="40">
         <f>SUM(AG$3:AG12)</f>
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="Z13" s="43" t="s">
         <v>24</v>
       </c>
       <c r="AA13" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB13" s="45">
         <f t="shared" si="15"/>
@@ -3321,27 +3321,27 @@
       </c>
       <c r="AC13" s="46">
         <f t="shared" si="8"/>
-        <v>87.28</v>
+        <v>34.92</v>
       </c>
       <c r="AD13" s="46">
         <f t="shared" si="9"/>
-        <v>89.46</v>
+        <v>35.79</v>
       </c>
       <c r="AE13" s="40">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AF13" s="47">
         <f t="shared" si="11"/>
-        <v>85.97</v>
+        <v>34.4</v>
       </c>
       <c r="AG13" s="40">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AH13" s="41">
         <f t="shared" si="13"/>
-        <v>6.1688459999999781</v>
+        <v>8.2050299999999741</v>
       </c>
     </row>
     <row r="14" spans="3:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3357,11 +3357,11 @@
       </c>
       <c r="L14" s="6">
         <f>SUM(S$3:S13)</f>
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="M14" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N14" s="19">
         <f t="shared" si="14"/>
@@ -3369,38 +3369,38 @@
       </c>
       <c r="O14" s="7">
         <f t="shared" si="4"/>
-        <v>85.97</v>
+        <v>34.4</v>
       </c>
       <c r="P14" s="51">
         <f t="shared" si="5"/>
-        <v>88.12</v>
+        <v>35.26</v>
       </c>
       <c r="Q14" s="52">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="R14" s="55">
         <f t="shared" si="1"/>
-        <v>84.68</v>
+        <v>33.880000000000003</v>
       </c>
       <c r="S14" s="54">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="T14" s="24">
         <f t="shared" si="7"/>
-        <v>10.140685000000028</v>
+        <v>11.357331999999992</v>
       </c>
       <c r="Y14" s="40">
         <f>SUM(AG$3:AG13)</f>
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="Z14" s="43" t="s">
         <v>25</v>
       </c>
       <c r="AA14" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB14" s="45">
         <f t="shared" si="15"/>
@@ -3408,27 +3408,27 @@
       </c>
       <c r="AC14" s="46">
         <f t="shared" si="8"/>
-        <v>85.97</v>
+        <v>34.4</v>
       </c>
       <c r="AD14" s="46">
         <f t="shared" si="9"/>
-        <v>88.12</v>
+        <v>35.26</v>
       </c>
       <c r="AE14" s="40">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AF14" s="47">
         <f t="shared" si="11"/>
-        <v>84.68</v>
+        <v>33.880000000000003</v>
       </c>
       <c r="AG14" s="40">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AH14" s="41">
         <f t="shared" si="13"/>
-        <v>6.0844110000000171</v>
+        <v>8.1123799999999946</v>
       </c>
     </row>
     <row r="15" spans="3:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3437,11 +3437,11 @@
       </c>
       <c r="L15" s="6">
         <f>SUM(S$3:S14)</f>
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="M15" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N15" s="19">
         <f t="shared" si="14"/>
@@ -3449,38 +3449,38 @@
       </c>
       <c r="O15" s="7">
         <f t="shared" si="4"/>
-        <v>84.68</v>
+        <v>33.880000000000003</v>
       </c>
       <c r="P15" s="51">
         <f t="shared" si="5"/>
-        <v>86.8</v>
+        <v>34.729999999999997</v>
       </c>
       <c r="Q15" s="52">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="R15" s="55">
         <f t="shared" si="1"/>
-        <v>83.41</v>
+        <v>33.369999999999997</v>
       </c>
       <c r="S15" s="54">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="T15" s="24">
         <f t="shared" si="7"/>
-        <v>9.9998199999999517</v>
+        <v>11.22762199999992</v>
       </c>
       <c r="Y15" s="40">
         <f>SUM(AG$3:AG14)</f>
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="Z15" s="43" t="s">
         <v>26</v>
       </c>
       <c r="AA15" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB15" s="45">
         <f t="shared" si="15"/>
@@ -3488,27 +3488,27 @@
       </c>
       <c r="AC15" s="46">
         <f t="shared" si="8"/>
-        <v>84.68</v>
+        <v>33.880000000000003</v>
       </c>
       <c r="AD15" s="46">
         <f t="shared" si="9"/>
-        <v>86.8</v>
+        <v>34.729999999999997</v>
       </c>
       <c r="AE15" s="40">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AF15" s="47">
         <f t="shared" si="11"/>
-        <v>83.41</v>
+        <v>33.369999999999997</v>
       </c>
       <c r="AG15" s="40">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AH15" s="41">
         <f t="shared" si="13"/>
-        <v>5.9998919999999707</v>
+        <v>8.0197299999999423</v>
       </c>
     </row>
     <row r="16" spans="3:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3517,11 +3517,11 @@
       </c>
       <c r="L16" s="6">
         <f>SUM(S$3:S15)</f>
-        <v>57</v>
+        <v>171</v>
       </c>
       <c r="M16" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N16" s="19">
         <f t="shared" si="14"/>
@@ -3529,38 +3529,38 @@
       </c>
       <c r="O16" s="7">
         <f t="shared" si="4"/>
-        <v>83.41</v>
+        <v>33.369999999999997</v>
       </c>
       <c r="P16" s="51">
         <f t="shared" si="5"/>
-        <v>85.5</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="Q16" s="52">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="R16" s="55">
         <f t="shared" si="1"/>
-        <v>82.16</v>
+        <v>32.869999999999997</v>
       </c>
       <c r="S16" s="54">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T16" s="24">
         <f t="shared" si="7"/>
-        <v>9.8588150000000176</v>
+        <v>10.957814000000075</v>
       </c>
       <c r="Y16" s="40">
         <f>SUM(AG$3:AG15)</f>
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="Z16" s="43" t="s">
         <v>27</v>
       </c>
       <c r="AA16" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB16" s="45">
         <f t="shared" si="15"/>
@@ -3568,27 +3568,27 @@
       </c>
       <c r="AC16" s="46">
         <f t="shared" si="8"/>
-        <v>83.41</v>
+        <v>33.369999999999997</v>
       </c>
       <c r="AD16" s="46">
         <f t="shared" si="9"/>
-        <v>85.5</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="AE16" s="40">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AF16" s="47">
         <f t="shared" si="11"/>
-        <v>82.16</v>
+        <v>32.869999999999997</v>
       </c>
       <c r="AG16" s="40">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AH16" s="41">
         <f t="shared" si="13"/>
-        <v>5.9152890000000102</v>
+        <v>7.8270100000000538</v>
       </c>
     </row>
     <row r="17" spans="3:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3606,11 +3606,11 @@
       </c>
       <c r="L17" s="6">
         <f>SUM(S$3:S16)</f>
-        <v>62</v>
+        <v>186</v>
       </c>
       <c r="M17" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N17" s="19">
         <f t="shared" si="14"/>
@@ -3618,38 +3618,38 @@
       </c>
       <c r="O17" s="7">
         <f t="shared" si="4"/>
-        <v>82.16</v>
+        <v>32.869999999999997</v>
       </c>
       <c r="P17" s="51">
         <f t="shared" si="5"/>
-        <v>84.21</v>
+        <v>33.69</v>
       </c>
       <c r="Q17" s="52">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="R17" s="55">
         <f t="shared" si="1"/>
-        <v>80.930000000000007</v>
+        <v>32.380000000000003</v>
       </c>
       <c r="S17" s="54">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T17" s="24">
         <f t="shared" si="7"/>
-        <v>9.6677049999999856</v>
+        <v>11.601120000000003</v>
       </c>
       <c r="Y17" s="40">
         <f>SUM(AG$3:AG16)</f>
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="Z17" s="43" t="s">
         <v>28</v>
       </c>
       <c r="AA17" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB17" s="45">
         <f t="shared" si="15"/>
@@ -3657,27 +3657,27 @@
       </c>
       <c r="AC17" s="46">
         <f t="shared" si="8"/>
-        <v>82.16</v>
+        <v>32.869999999999997</v>
       </c>
       <c r="AD17" s="46">
         <f t="shared" si="9"/>
-        <v>84.21</v>
+        <v>33.69</v>
       </c>
       <c r="AE17" s="40">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AF17" s="47">
         <f t="shared" si="11"/>
-        <v>80.930000000000007</v>
+        <v>32.380000000000003</v>
       </c>
       <c r="AG17" s="40">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AH17" s="41">
         <f t="shared" si="13"/>
-        <v>5.800622999999991</v>
+        <v>7.7340800000000023</v>
       </c>
     </row>
     <row r="18" spans="3:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3693,11 +3693,11 @@
       </c>
       <c r="L18" s="6">
         <f>SUM(S$3:S17)</f>
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="M18" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N18" s="19">
         <f t="shared" si="14"/>
@@ -3705,38 +3705,38 @@
       </c>
       <c r="O18" s="7">
         <f t="shared" si="4"/>
-        <v>80.930000000000007</v>
+        <v>32.380000000000003</v>
       </c>
       <c r="P18" s="51">
         <f t="shared" si="5"/>
-        <v>82.95</v>
+        <v>33.19</v>
       </c>
       <c r="Q18" s="52">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="R18" s="55">
         <f t="shared" si="1"/>
-        <v>79.72</v>
+        <v>31.89</v>
       </c>
       <c r="S18" s="54">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T18" s="24">
         <f t="shared" si="7"/>
-        <v>9.5264199999999803</v>
+        <v>11.461514999999928</v>
       </c>
       <c r="Y18" s="40">
         <f>SUM(AG$3:AG17)</f>
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="Z18" s="43" t="s">
         <v>29</v>
       </c>
       <c r="AA18" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB18" s="45">
         <f t="shared" si="15"/>
@@ -3744,27 +3744,27 @@
       </c>
       <c r="AC18" s="46">
         <f t="shared" si="8"/>
-        <v>80.930000000000007</v>
+        <v>32.380000000000003</v>
       </c>
       <c r="AD18" s="46">
         <f t="shared" si="9"/>
-        <v>82.95</v>
+        <v>33.19</v>
       </c>
       <c r="AE18" s="40">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AF18" s="47">
         <f t="shared" si="11"/>
-        <v>79.72</v>
+        <v>31.89</v>
       </c>
       <c r="AG18" s="40">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AH18" s="41">
         <f t="shared" si="13"/>
-        <v>5.7158519999999884</v>
+        <v>7.6410099999999517</v>
       </c>
     </row>
     <row r="19" spans="3:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3782,11 +3782,11 @@
       </c>
       <c r="L19" s="6">
         <f>SUM(S$3:S18)</f>
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="M19" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N19" s="19">
         <f t="shared" si="14"/>
@@ -3794,38 +3794,38 @@
       </c>
       <c r="O19" s="7">
         <f t="shared" si="4"/>
-        <v>79.72</v>
+        <v>31.89</v>
       </c>
       <c r="P19" s="51">
         <f t="shared" si="5"/>
-        <v>81.709999999999994</v>
+        <v>32.69</v>
       </c>
       <c r="Q19" s="52">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="R19" s="55">
         <f t="shared" si="1"/>
-        <v>78.52</v>
+        <v>31.41</v>
       </c>
       <c r="S19" s="54">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T19" s="24">
         <f t="shared" si="7"/>
-        <v>9.3849949999999751</v>
+        <v>11.321909999999956</v>
       </c>
       <c r="Y19" s="40">
         <f>SUM(AG$3:AG18)</f>
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="Z19" s="43" t="s">
         <v>30</v>
       </c>
       <c r="AA19" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB19" s="45">
         <f t="shared" si="15"/>
@@ -3833,27 +3833,27 @@
       </c>
       <c r="AC19" s="46">
         <f t="shared" si="8"/>
-        <v>79.72</v>
+        <v>31.89</v>
       </c>
       <c r="AD19" s="46">
         <f t="shared" si="9"/>
-        <v>81.709999999999994</v>
+        <v>32.69</v>
       </c>
       <c r="AE19" s="40">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AF19" s="47">
         <f t="shared" si="11"/>
-        <v>78.52</v>
+        <v>31.41</v>
       </c>
       <c r="AG19" s="40">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AH19" s="41">
         <f t="shared" si="13"/>
-        <v>5.6309969999999847</v>
+        <v>7.5479399999999712</v>
       </c>
     </row>
     <row r="20" spans="3:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3871,11 +3871,11 @@
       </c>
       <c r="L20" s="6">
         <f>SUM(S$3:S19)</f>
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="M20" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N20" s="19">
         <f t="shared" si="14"/>
@@ -3883,38 +3883,38 @@
       </c>
       <c r="O20" s="7">
         <f t="shared" si="4"/>
-        <v>78.52</v>
+        <v>31.41</v>
       </c>
       <c r="P20" s="51">
         <f t="shared" si="5"/>
-        <v>80.48</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="Q20" s="52">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="R20" s="55">
         <f t="shared" si="1"/>
-        <v>77.34</v>
+        <v>30.94</v>
       </c>
       <c r="S20" s="54">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="T20" s="24">
         <f t="shared" si="7"/>
-        <v>9.24350000000004</v>
+        <v>11.182095000000039</v>
       </c>
       <c r="Y20" s="40">
         <f>SUM(AG$3:AG19)</f>
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="Z20" s="43" t="s">
         <v>31</v>
       </c>
       <c r="AA20" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB20" s="45">
         <f t="shared" si="15"/>
@@ -3922,27 +3922,27 @@
       </c>
       <c r="AC20" s="46">
         <f t="shared" si="8"/>
-        <v>78.52</v>
+        <v>31.41</v>
       </c>
       <c r="AD20" s="46">
         <f t="shared" si="9"/>
-        <v>80.48</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="AE20" s="40">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AF20" s="47">
         <f t="shared" si="11"/>
-        <v>77.34</v>
+        <v>30.94</v>
       </c>
       <c r="AG20" s="40">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AH20" s="41">
         <f t="shared" si="13"/>
-        <v>7.394800000000032</v>
+        <v>8.2002030000000303</v>
       </c>
     </row>
     <row r="21" spans="3:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3960,11 +3960,11 @@
       </c>
       <c r="L21" s="6">
         <f>SUM(S$3:S20)</f>
-        <v>82</v>
+        <v>247</v>
       </c>
       <c r="M21" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N21" s="19">
         <f t="shared" si="14"/>
@@ -3972,38 +3972,38 @@
       </c>
       <c r="O21" s="7">
         <f t="shared" si="4"/>
-        <v>77.34</v>
+        <v>30.94</v>
       </c>
       <c r="P21" s="51">
         <f t="shared" si="5"/>
-        <v>79.27</v>
+        <v>31.71</v>
       </c>
       <c r="Q21" s="52">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="R21" s="55">
         <f t="shared" si="1"/>
-        <v>76.180000000000007</v>
+        <v>30.48</v>
       </c>
       <c r="S21" s="54">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="T21" s="24">
         <f t="shared" si="7"/>
-        <v>9.1018649999999628</v>
+        <v>11.618319999999994</v>
       </c>
       <c r="Y21" s="40">
         <f>SUM(AG$3:AG20)</f>
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="Z21" s="43" t="s">
         <v>32</v>
       </c>
       <c r="AA21" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB21" s="45">
         <f t="shared" si="15"/>
@@ -4011,27 +4011,27 @@
       </c>
       <c r="AC21" s="46">
         <f t="shared" si="8"/>
-        <v>77.34</v>
+        <v>30.94</v>
       </c>
       <c r="AD21" s="46">
         <f t="shared" si="9"/>
-        <v>79.27</v>
+        <v>31.71</v>
       </c>
       <c r="AE21" s="40">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AF21" s="47">
         <f t="shared" si="11"/>
-        <v>76.180000000000007</v>
+        <v>30.48</v>
       </c>
       <c r="AG21" s="40">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AH21" s="41">
         <f t="shared" si="13"/>
-        <v>7.2814919999999708</v>
+        <v>7.9875949999999953</v>
       </c>
     </row>
     <row r="22" spans="3:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4047,11 +4047,11 @@
       </c>
       <c r="L22" s="6">
         <f>SUM(S$3:S21)</f>
-        <v>87</v>
+        <v>263</v>
       </c>
       <c r="M22" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N22" s="19">
         <f t="shared" si="14"/>
@@ -4059,38 +4059,38 @@
       </c>
       <c r="O22" s="7">
         <f t="shared" si="4"/>
-        <v>76.180000000000007</v>
+        <v>30.48</v>
       </c>
       <c r="P22" s="51">
         <f t="shared" si="5"/>
-        <v>78.08</v>
+        <v>31.24</v>
       </c>
       <c r="Q22" s="52">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="R22" s="55">
         <f t="shared" si="1"/>
-        <v>75.040000000000006</v>
+        <v>30.02</v>
       </c>
       <c r="S22" s="54">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="T22" s="24">
         <f t="shared" si="7"/>
-        <v>8.9600899999999566</v>
+        <v>11.468735999999968</v>
       </c>
       <c r="Y22" s="40">
         <f>SUM(AG$3:AG21)</f>
-        <v>60</v>
+        <v>182</v>
       </c>
       <c r="Z22" s="43" t="s">
         <v>33</v>
       </c>
       <c r="AA22" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB22" s="45">
         <f t="shared" si="15"/>
@@ -4098,27 +4098,27 @@
       </c>
       <c r="AC22" s="46">
         <f t="shared" si="8"/>
-        <v>76.180000000000007</v>
+        <v>30.48</v>
       </c>
       <c r="AD22" s="46">
         <f t="shared" si="9"/>
-        <v>78.08</v>
+        <v>31.24</v>
       </c>
       <c r="AE22" s="40">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AF22" s="47">
         <f t="shared" si="11"/>
-        <v>75.040000000000006</v>
+        <v>30.02</v>
       </c>
       <c r="AG22" s="40">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AH22" s="41">
         <f t="shared" si="13"/>
-        <v>7.1680719999999658</v>
+        <v>7.8847559999999781</v>
       </c>
     </row>
     <row r="23" spans="3:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4127,11 +4127,11 @@
       </c>
       <c r="L23" s="6">
         <f>SUM(S$3:S22)</f>
-        <v>92</v>
+        <v>279</v>
       </c>
       <c r="M23" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N23" s="19">
         <f t="shared" si="14"/>
@@ -4139,38 +4139,38 @@
       </c>
       <c r="O23" s="7">
         <f t="shared" si="4"/>
-        <v>75.040000000000006</v>
+        <v>30.02</v>
       </c>
       <c r="P23" s="51">
         <f t="shared" si="5"/>
-        <v>76.92</v>
+        <v>30.77</v>
       </c>
       <c r="Q23" s="52">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="R23" s="55">
         <f t="shared" si="1"/>
-        <v>73.91</v>
+        <v>29.57</v>
       </c>
       <c r="S23" s="54">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="T23" s="24">
         <f t="shared" si="7"/>
-        <v>8.8681399999999773</v>
+        <v>11.319151999999999</v>
       </c>
       <c r="Y23" s="40">
         <f>SUM(AG$3:AG22)</f>
-        <v>64</v>
+        <v>193</v>
       </c>
       <c r="Z23" s="43" t="s">
         <v>34</v>
       </c>
       <c r="AA23" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB23" s="45">
         <f t="shared" si="15"/>
@@ -4178,27 +4178,27 @@
       </c>
       <c r="AC23" s="46">
         <f t="shared" si="8"/>
-        <v>75.040000000000006</v>
+        <v>30.02</v>
       </c>
       <c r="AD23" s="46">
         <f t="shared" si="9"/>
-        <v>76.92</v>
+        <v>30.77</v>
       </c>
       <c r="AE23" s="40">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AF23" s="47">
         <f t="shared" si="11"/>
-        <v>73.91</v>
+        <v>29.57</v>
       </c>
       <c r="AG23" s="40">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AH23" s="41">
         <f t="shared" si="13"/>
-        <v>7.0945119999999822</v>
+        <v>7.781917</v>
       </c>
     </row>
     <row r="24" spans="3:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4207,11 +4207,11 @@
       </c>
       <c r="L24" s="6">
         <f>SUM(S$3:S23)</f>
-        <v>97</v>
+        <v>295</v>
       </c>
       <c r="M24" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N24" s="19">
         <f t="shared" si="14"/>
@@ -4219,38 +4219,38 @@
       </c>
       <c r="O24" s="7">
         <f t="shared" si="4"/>
-        <v>73.91</v>
+        <v>29.57</v>
       </c>
       <c r="P24" s="51">
         <f t="shared" si="5"/>
-        <v>75.760000000000005</v>
+        <v>30.31</v>
       </c>
       <c r="Q24" s="52">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="R24" s="55">
         <f t="shared" si="1"/>
-        <v>72.8</v>
+        <v>29.13</v>
       </c>
       <c r="S24" s="54">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="T24" s="24">
         <f t="shared" si="7"/>
-        <v>8.726155000000043</v>
+        <v>11.169343999999974</v>
       </c>
       <c r="Y24" s="40">
         <f>SUM(AG$3:AG23)</f>
-        <v>68</v>
+        <v>204</v>
       </c>
       <c r="Z24" s="43" t="s">
         <v>35</v>
       </c>
       <c r="AA24" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB24" s="45">
         <f t="shared" si="15"/>
@@ -4258,27 +4258,27 @@
       </c>
       <c r="AC24" s="46">
         <f t="shared" si="8"/>
-        <v>73.91</v>
+        <v>29.57</v>
       </c>
       <c r="AD24" s="46">
         <f t="shared" si="9"/>
-        <v>75.760000000000005</v>
+        <v>30.31</v>
       </c>
       <c r="AE24" s="40">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AF24" s="47">
         <f t="shared" si="11"/>
-        <v>72.8</v>
+        <v>29.13</v>
       </c>
       <c r="AG24" s="40">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AH24" s="41">
         <f t="shared" si="13"/>
-        <v>6.9809240000000337</v>
+        <v>7.6789239999999825</v>
       </c>
     </row>
     <row r="25" spans="3:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4287,11 +4287,11 @@
       </c>
       <c r="L25" s="6">
         <f>SUM(S$3:S24)</f>
-        <v>102</v>
+        <v>311</v>
       </c>
       <c r="M25" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N25" s="19">
         <f t="shared" si="14"/>
@@ -4299,38 +4299,38 @@
       </c>
       <c r="O25" s="7">
         <f t="shared" si="4"/>
-        <v>72.8</v>
+        <v>29.13</v>
       </c>
       <c r="P25" s="51">
         <f t="shared" si="5"/>
-        <v>74.62</v>
+        <v>29.86</v>
       </c>
       <c r="Q25" s="52">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="R25" s="55">
         <f t="shared" si="1"/>
-        <v>71.709999999999994</v>
+        <v>28.69</v>
       </c>
       <c r="S25" s="54">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="T25" s="24">
         <f t="shared" si="7"/>
-        <v>8.5840300000000376</v>
+        <v>11.019312000000006</v>
       </c>
       <c r="Y25" s="40">
         <f>SUM(AG$3:AG24)</f>
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="Z25" s="43" t="s">
         <v>36</v>
       </c>
       <c r="AA25" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB25" s="45">
         <f t="shared" si="15"/>
@@ -4338,27 +4338,27 @@
       </c>
       <c r="AC25" s="46">
         <f t="shared" si="8"/>
-        <v>72.8</v>
+        <v>29.13</v>
       </c>
       <c r="AD25" s="46">
         <f t="shared" si="9"/>
-        <v>74.62</v>
+        <v>29.86</v>
       </c>
       <c r="AE25" s="40">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AF25" s="47">
         <f t="shared" si="11"/>
-        <v>71.709999999999994</v>
+        <v>28.69</v>
       </c>
       <c r="AG25" s="40">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AH25" s="41">
         <f t="shared" si="13"/>
-        <v>6.8672240000000295</v>
+        <v>7.5757770000000049</v>
       </c>
     </row>
     <row r="26" spans="3:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4367,11 +4367,11 @@
       </c>
       <c r="L26" s="6">
         <f>SUM(S$3:S25)</f>
-        <v>108</v>
+        <v>328</v>
       </c>
       <c r="M26" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N26" s="19">
         <f t="shared" si="14"/>
@@ -4379,38 +4379,38 @@
       </c>
       <c r="O26" s="7">
         <f t="shared" si="4"/>
-        <v>71.709999999999994</v>
+        <v>28.69</v>
       </c>
       <c r="P26" s="51">
         <f t="shared" si="5"/>
-        <v>73.5</v>
+        <v>29.41</v>
       </c>
       <c r="Q26" s="52">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="R26" s="55">
         <f t="shared" si="1"/>
-        <v>70.63</v>
+        <v>28.26</v>
       </c>
       <c r="S26" s="54">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="T26" s="24">
         <f t="shared" si="7"/>
-        <v>10.130118000000037</v>
+        <v>11.548609999999981</v>
       </c>
       <c r="Y26" s="40">
         <f>SUM(AG$3:AG25)</f>
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="Z26" s="43" t="s">
         <v>37</v>
       </c>
       <c r="AA26" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB26" s="45">
         <f t="shared" si="15"/>
@@ -4418,27 +4418,27 @@
       </c>
       <c r="AC26" s="46">
         <f t="shared" si="8"/>
-        <v>71.709999999999994</v>
+        <v>28.69</v>
       </c>
       <c r="AD26" s="46">
         <f t="shared" si="9"/>
-        <v>73.5</v>
+        <v>29.41</v>
       </c>
       <c r="AE26" s="40">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AF26" s="47">
         <f t="shared" si="11"/>
-        <v>70.63</v>
+        <v>28.26</v>
       </c>
       <c r="AG26" s="40">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AH26" s="41">
         <f t="shared" si="13"/>
-        <v>6.7534120000000248</v>
+        <v>8.1519599999999866</v>
       </c>
     </row>
     <row r="27" spans="3:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4447,11 +4447,11 @@
       </c>
       <c r="L27" s="6">
         <f>SUM(S$3:S26)</f>
-        <v>114</v>
+        <v>345</v>
       </c>
       <c r="M27" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N27" s="19">
         <f t="shared" si="14"/>
@@ -4459,38 +4459,38 @@
       </c>
       <c r="O27" s="7">
         <f t="shared" si="4"/>
-        <v>70.63</v>
+        <v>28.26</v>
       </c>
       <c r="P27" s="51">
         <f t="shared" si="5"/>
-        <v>72.400000000000006</v>
+        <v>28.97</v>
       </c>
       <c r="Q27" s="52">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="R27" s="55">
         <f t="shared" si="1"/>
-        <v>69.569999999999993</v>
+        <v>27.84</v>
       </c>
       <c r="S27" s="54">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="T27" s="24">
         <f t="shared" si="7"/>
-        <v>10.019274000000062</v>
+        <v>11.388962999999954</v>
       </c>
       <c r="Y27" s="40">
         <f>SUM(AG$3:AG26)</f>
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="Z27" s="43" t="s">
         <v>38</v>
       </c>
       <c r="AA27" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB27" s="45">
         <f t="shared" si="15"/>
@@ -4498,27 +4498,27 @@
       </c>
       <c r="AC27" s="46">
         <f t="shared" si="8"/>
-        <v>70.63</v>
+        <v>28.26</v>
       </c>
       <c r="AD27" s="46">
         <f t="shared" si="9"/>
-        <v>72.400000000000006</v>
+        <v>28.97</v>
       </c>
       <c r="AE27" s="40">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AF27" s="47">
         <f t="shared" si="11"/>
-        <v>69.569999999999993</v>
+        <v>27.84</v>
       </c>
       <c r="AG27" s="40">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AH27" s="41">
         <f t="shared" si="13"/>
-        <v>6.6795160000000404</v>
+        <v>8.0392679999999679</v>
       </c>
     </row>
     <row r="28" spans="3:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4527,11 +4527,11 @@
       </c>
       <c r="L28" s="6">
         <f>SUM(S$3:S27)</f>
-        <v>120</v>
+        <v>362</v>
       </c>
       <c r="M28" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N28" s="19">
         <f t="shared" si="14"/>
@@ -4539,38 +4539,38 @@
       </c>
       <c r="O28" s="7">
         <f t="shared" si="4"/>
-        <v>69.569999999999993</v>
+        <v>27.84</v>
       </c>
       <c r="P28" s="51">
         <f t="shared" si="5"/>
-        <v>71.31</v>
+        <v>28.54</v>
       </c>
       <c r="Q28" s="52">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="R28" s="55">
         <f t="shared" si="1"/>
-        <v>68.53</v>
+        <v>27.42</v>
       </c>
       <c r="S28" s="54">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="T28" s="24">
         <f t="shared" si="7"/>
-        <v>9.8483040000000539</v>
+        <v>11.229077999999987</v>
       </c>
       <c r="Y28" s="40">
         <f>SUM(AG$3:AG27)</f>
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="Z28" s="43" t="s">
         <v>39</v>
       </c>
       <c r="AA28" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB28" s="45">
         <f t="shared" si="15"/>
@@ -4578,27 +4578,27 @@
       </c>
       <c r="AC28" s="46">
         <f t="shared" si="8"/>
-        <v>69.569999999999993</v>
+        <v>27.84</v>
       </c>
       <c r="AD28" s="46">
         <f t="shared" si="9"/>
-        <v>71.31</v>
+        <v>28.54</v>
       </c>
       <c r="AE28" s="40">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AF28" s="47">
         <f t="shared" si="11"/>
-        <v>68.53</v>
+        <v>27.42</v>
       </c>
       <c r="AG28" s="40">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AH28" s="41">
         <f t="shared" si="13"/>
-        <v>6.5655360000000362</v>
+        <v>7.9264079999999915</v>
       </c>
     </row>
     <row r="29" spans="3:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4607,11 +4607,11 @@
       </c>
       <c r="L29" s="6">
         <f>SUM(S$3:S28)</f>
-        <v>126</v>
+        <v>380</v>
       </c>
       <c r="M29" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N29" s="19">
         <f t="shared" si="14"/>
@@ -4619,38 +4619,38 @@
       </c>
       <c r="O29" s="7">
         <f t="shared" si="4"/>
-        <v>68.53</v>
+        <v>27.42</v>
       </c>
       <c r="P29" s="51">
         <f t="shared" si="5"/>
-        <v>70.239999999999995</v>
+        <v>28.11</v>
       </c>
       <c r="Q29" s="52">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="R29" s="55">
         <f t="shared" si="1"/>
-        <v>67.5</v>
+        <v>27.01</v>
       </c>
       <c r="S29" s="54">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="T29" s="24">
         <f t="shared" si="7"/>
-        <v>9.6771659999999624</v>
+        <v>11.720321999999959</v>
       </c>
       <c r="Y29" s="40">
         <f>SUM(AG$3:AG28)</f>
-        <v>88</v>
+        <v>263</v>
       </c>
       <c r="Z29" s="43" t="s">
         <v>40</v>
       </c>
       <c r="AA29" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB29" s="45">
         <f t="shared" si="15"/>
@@ -4658,27 +4658,27 @@
       </c>
       <c r="AC29" s="46">
         <f t="shared" si="8"/>
-        <v>68.53</v>
+        <v>27.42</v>
       </c>
       <c r="AD29" s="46">
         <f t="shared" si="9"/>
-        <v>70.239999999999995</v>
+        <v>28.11</v>
       </c>
       <c r="AE29" s="40">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AF29" s="47">
         <f t="shared" si="11"/>
-        <v>67.5</v>
+        <v>27.01</v>
       </c>
       <c r="AG29" s="40">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AH29" s="41">
         <f t="shared" si="13"/>
-        <v>6.4514439999999746</v>
+        <v>7.8135479999999724</v>
       </c>
     </row>
     <row r="30" spans="3:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4687,11 +4687,11 @@
       </c>
       <c r="L30" s="6">
         <f>SUM(S$3:S29)</f>
-        <v>132</v>
+        <v>398</v>
       </c>
       <c r="M30" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N30" s="19">
         <f t="shared" si="14"/>
@@ -4699,38 +4699,38 @@
       </c>
       <c r="O30" s="7">
         <f t="shared" si="4"/>
-        <v>67.5</v>
+        <v>27.01</v>
       </c>
       <c r="P30" s="51">
         <f t="shared" si="5"/>
-        <v>69.19</v>
+        <v>27.69</v>
       </c>
       <c r="Q30" s="52">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="R30" s="55">
         <f t="shared" si="1"/>
-        <v>66.489999999999995</v>
+        <v>26.6</v>
       </c>
       <c r="S30" s="54">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="T30" s="24">
         <f t="shared" si="7"/>
-        <v>9.565901999999987</v>
+        <v>11.550779999999994</v>
       </c>
       <c r="Y30" s="40">
         <f>SUM(AG$3:AG29)</f>
-        <v>92</v>
+        <v>275</v>
       </c>
       <c r="Z30" s="43" t="s">
         <v>41</v>
       </c>
       <c r="AA30" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB30" s="45">
         <f t="shared" si="15"/>
@@ -4738,27 +4738,27 @@
       </c>
       <c r="AC30" s="46">
         <f t="shared" si="8"/>
-        <v>67.5</v>
+        <v>27.01</v>
       </c>
       <c r="AD30" s="46">
         <f t="shared" si="9"/>
-        <v>69.19</v>
+        <v>27.69</v>
       </c>
       <c r="AE30" s="40">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AF30" s="47">
         <f t="shared" si="11"/>
-        <v>66.489999999999995</v>
+        <v>26.6</v>
       </c>
       <c r="AG30" s="40">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AH30" s="41">
         <f t="shared" si="13"/>
-        <v>6.3772679999999911</v>
+        <v>7.7005199999999965</v>
       </c>
     </row>
     <row r="31" spans="3:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4767,11 +4767,11 @@
       </c>
       <c r="L31" s="6">
         <f>SUM(S$3:S30)</f>
-        <v>138</v>
+        <v>416</v>
       </c>
       <c r="M31" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N31" s="19">
         <f t="shared" si="14"/>
@@ -4779,38 +4779,38 @@
       </c>
       <c r="O31" s="7">
         <f t="shared" si="4"/>
-        <v>66.489999999999995</v>
+        <v>26.6</v>
       </c>
       <c r="P31" s="51">
         <f t="shared" si="5"/>
-        <v>68.150000000000006</v>
+        <v>27.27</v>
       </c>
       <c r="Q31" s="52">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="R31" s="55">
         <f t="shared" si="1"/>
-        <v>65.489999999999995</v>
+        <v>26.2</v>
       </c>
       <c r="S31" s="54">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="T31" s="24">
         <f t="shared" si="7"/>
-        <v>9.3945120000000646</v>
+        <v>11.381237999999966</v>
       </c>
       <c r="Y31" s="40">
         <f>SUM(AG$3:AG30)</f>
-        <v>96</v>
+        <v>288</v>
       </c>
       <c r="Z31" s="43" t="s">
         <v>42</v>
       </c>
       <c r="AA31" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB31" s="45">
         <f t="shared" si="15"/>
@@ -4818,27 +4818,27 @@
       </c>
       <c r="AC31" s="46">
         <f t="shared" si="8"/>
-        <v>66.489999999999995</v>
+        <v>26.6</v>
       </c>
       <c r="AD31" s="46">
         <f t="shared" si="9"/>
-        <v>68.150000000000006</v>
+        <v>27.27</v>
       </c>
       <c r="AE31" s="40">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AF31" s="47">
         <f t="shared" si="11"/>
-        <v>65.489999999999995</v>
+        <v>26.2</v>
       </c>
       <c r="AG31" s="40">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AH31" s="41">
         <f t="shared" si="13"/>
-        <v>6.2630080000000428</v>
+        <v>8.2197829999999765</v>
       </c>
     </row>
     <row r="32" spans="3:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4847,11 +4847,11 @@
       </c>
       <c r="L32" s="6">
         <f>SUM(S$3:S31)</f>
-        <v>144</v>
+        <v>434</v>
       </c>
       <c r="M32" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N32" s="19">
         <f t="shared" si="14"/>
@@ -4859,38 +4859,38 @@
       </c>
       <c r="O32" s="7">
         <f t="shared" si="4"/>
-        <v>65.489999999999995</v>
+        <v>26.2</v>
       </c>
       <c r="P32" s="51">
         <f t="shared" si="5"/>
-        <v>67.13</v>
+        <v>26.86</v>
       </c>
       <c r="Q32" s="52">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="R32" s="55">
         <f t="shared" si="1"/>
-        <v>64.510000000000005</v>
+        <v>25.81</v>
       </c>
       <c r="S32" s="54">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="T32" s="24">
         <f t="shared" si="7"/>
-        <v>9.2829960000000042</v>
+        <v>11.211444000000002</v>
       </c>
       <c r="Y32" s="40">
         <f>SUM(AG$3:AG31)</f>
-        <v>100</v>
+        <v>301</v>
       </c>
       <c r="Z32" s="43" t="s">
         <v>43</v>
       </c>
       <c r="AA32" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB32" s="45">
         <f t="shared" si="15"/>
@@ -4898,27 +4898,27 @@
       </c>
       <c r="AC32" s="46">
         <f t="shared" si="8"/>
-        <v>65.489999999999995</v>
+        <v>26.2</v>
       </c>
       <c r="AD32" s="46">
         <f t="shared" si="9"/>
-        <v>67.13</v>
+        <v>26.86</v>
       </c>
       <c r="AE32" s="40">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AF32" s="47">
         <f t="shared" si="11"/>
-        <v>64.510000000000005</v>
+        <v>25.81</v>
       </c>
       <c r="AG32" s="40">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AH32" s="41">
         <f t="shared" si="13"/>
-        <v>6.1886640000000019</v>
+        <v>8.0971540000000015</v>
       </c>
     </row>
     <row r="33" spans="11:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4927,11 +4927,11 @@
       </c>
       <c r="L33" s="6">
         <f>SUM(S$3:S32)</f>
-        <v>150</v>
+        <v>453</v>
       </c>
       <c r="M33" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N33" s="19">
         <f t="shared" si="14"/>
@@ -4939,38 +4939,38 @@
       </c>
       <c r="O33" s="7">
         <f t="shared" si="4"/>
-        <v>64.510000000000005</v>
+        <v>25.81</v>
       </c>
       <c r="P33" s="51">
         <f t="shared" si="5"/>
-        <v>66.12</v>
+        <v>26.46</v>
       </c>
       <c r="Q33" s="52">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="R33" s="55">
         <f t="shared" si="1"/>
-        <v>63.54</v>
+        <v>25.42</v>
       </c>
       <c r="S33" s="54">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="T33" s="24">
         <f t="shared" si="7"/>
-        <v>9.1113539999999968</v>
+        <v>11.654809000000041</v>
       </c>
       <c r="Y33" s="40">
         <f>SUM(AG$3:AG32)</f>
-        <v>104</v>
+        <v>314</v>
       </c>
       <c r="Z33" s="43" t="s">
         <v>44</v>
       </c>
       <c r="AA33" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB33" s="45">
         <f t="shared" si="15"/>
@@ -4978,27 +4978,27 @@
       </c>
       <c r="AC33" s="46">
         <f t="shared" si="8"/>
-        <v>64.510000000000005</v>
+        <v>25.81</v>
       </c>
       <c r="AD33" s="46">
         <f t="shared" si="9"/>
-        <v>66.12</v>
+        <v>26.46</v>
       </c>
       <c r="AE33" s="40">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AF33" s="47">
         <f t="shared" si="11"/>
-        <v>63.54</v>
+        <v>25.42</v>
       </c>
       <c r="AG33" s="40">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AH33" s="41">
         <f t="shared" si="13"/>
-        <v>6.0742359999999973</v>
+        <v>7.9743430000000277</v>
       </c>
     </row>
     <row r="34" spans="11:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5007,11 +5007,11 @@
       </c>
       <c r="L34" s="6">
         <f>SUM(S$3:S33)</f>
-        <v>156</v>
+        <v>472</v>
       </c>
       <c r="M34" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N34" s="19">
         <f t="shared" si="14"/>
@@ -5019,38 +5019,38 @@
       </c>
       <c r="O34" s="7">
         <f t="shared" si="4"/>
-        <v>63.54</v>
+        <v>25.42</v>
       </c>
       <c r="P34" s="51">
         <f t="shared" si="5"/>
-        <v>65.13</v>
+        <v>26.06</v>
       </c>
       <c r="Q34" s="52">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="R34" s="55">
         <f t="shared" si="1"/>
-        <v>62.59</v>
+        <v>25.04</v>
       </c>
       <c r="S34" s="54">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="T34" s="24">
         <f t="shared" si="7"/>
-        <v>8.9995859999999777</v>
+        <v>11.475315999999943</v>
       </c>
       <c r="Y34" s="40">
         <f>SUM(AG$3:AG33)</f>
-        <v>108</v>
+        <v>327</v>
       </c>
       <c r="Z34" s="43" t="s">
         <v>45</v>
       </c>
       <c r="AA34" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB34" s="45">
         <f t="shared" si="15"/>
@@ -5058,27 +5058,27 @@
       </c>
       <c r="AC34" s="46">
         <f t="shared" si="8"/>
-        <v>63.54</v>
+        <v>25.42</v>
       </c>
       <c r="AD34" s="46">
         <f t="shared" si="9"/>
-        <v>65.13</v>
+        <v>26.06</v>
       </c>
       <c r="AE34" s="40">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AF34" s="47">
         <f t="shared" si="11"/>
-        <v>62.59</v>
+        <v>25.04</v>
       </c>
       <c r="AG34" s="40">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AH34" s="41">
         <f t="shared" si="13"/>
-        <v>5.9997239999999854</v>
+        <v>7.8515319999999615</v>
       </c>
     </row>
     <row r="35" spans="11:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5087,11 +5087,11 @@
       </c>
       <c r="L35" s="6">
         <f>SUM(S$3:S34)</f>
-        <v>162</v>
+        <v>491</v>
       </c>
       <c r="M35" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N35" s="19">
         <f t="shared" si="14"/>
@@ -5099,38 +5099,38 @@
       </c>
       <c r="O35" s="7">
         <f t="shared" si="4"/>
-        <v>62.59</v>
+        <v>25.04</v>
       </c>
       <c r="P35" s="51">
         <f t="shared" si="5"/>
-        <v>64.150000000000006</v>
+        <v>25.67</v>
       </c>
       <c r="Q35" s="52">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="R35" s="55">
         <f t="shared" si="1"/>
-        <v>61.65</v>
+        <v>24.66</v>
       </c>
       <c r="S35" s="54">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="T35" s="24">
         <f t="shared" si="7"/>
-        <v>8.8276920000000132</v>
+        <v>11.295557000000048</v>
       </c>
       <c r="Y35" s="40">
         <f>SUM(AG$3:AG34)</f>
-        <v>112</v>
+        <v>340</v>
       </c>
       <c r="Z35" s="43" t="s">
         <v>46</v>
       </c>
       <c r="AA35" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB35" s="45">
         <f t="shared" si="15"/>
@@ -5138,27 +5138,27 @@
       </c>
       <c r="AC35" s="46">
         <f t="shared" si="8"/>
-        <v>62.59</v>
+        <v>25.04</v>
       </c>
       <c r="AD35" s="46">
         <f t="shared" si="9"/>
-        <v>64.150000000000006</v>
+        <v>25.67</v>
       </c>
       <c r="AE35" s="40">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AF35" s="47">
         <f t="shared" si="11"/>
-        <v>61.65</v>
+        <v>24.66</v>
       </c>
       <c r="AG35" s="40">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AH35" s="41">
         <f t="shared" si="13"/>
-        <v>5.8851280000000088</v>
+        <v>7.7285390000000334</v>
       </c>
     </row>
     <row r="36" spans="11:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5167,11 +5167,11 @@
       </c>
       <c r="L36" s="6">
         <f>SUM(S$3:S35)</f>
-        <v>168</v>
+        <v>510</v>
       </c>
       <c r="M36" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N36" s="19">
         <f t="shared" si="14"/>
@@ -5179,38 +5179,38 @@
       </c>
       <c r="O36" s="7">
         <f t="shared" si="4"/>
-        <v>61.65</v>
+        <v>24.66</v>
       </c>
       <c r="P36" s="51">
         <f t="shared" si="5"/>
-        <v>63.19</v>
+        <v>25.28</v>
       </c>
       <c r="Q36" s="52">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="R36" s="55">
         <f t="shared" si="1"/>
-        <v>60.73</v>
+        <v>24.29</v>
       </c>
       <c r="S36" s="54">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="T36" s="24">
         <f t="shared" si="7"/>
-        <v>8.7156719999999943</v>
+        <v>11.115798000000019</v>
       </c>
       <c r="Y36" s="40">
         <f>SUM(AG$3:AG35)</f>
-        <v>117</v>
+        <v>354</v>
       </c>
       <c r="Z36" s="43" t="s">
         <v>47</v>
       </c>
       <c r="AA36" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB36" s="45">
         <f t="shared" si="15"/>
@@ -5218,27 +5218,27 @@
       </c>
       <c r="AC36" s="46">
         <f t="shared" si="8"/>
-        <v>61.65</v>
+        <v>24.66</v>
       </c>
       <c r="AD36" s="46">
         <f t="shared" si="9"/>
-        <v>63.19</v>
+        <v>25.28</v>
       </c>
       <c r="AE36" s="40">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AF36" s="47">
         <f t="shared" si="11"/>
-        <v>60.73</v>
+        <v>24.29</v>
       </c>
       <c r="AG36" s="40">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AH36" s="41">
         <f t="shared" si="13"/>
-        <v>7.2630599999999959</v>
+        <v>8.1905880000000142</v>
       </c>
     </row>
     <row r="37" spans="11:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5247,11 +5247,11 @@
       </c>
       <c r="L37" s="6">
         <f>SUM(S$3:S36)</f>
-        <v>175</v>
+        <v>530</v>
       </c>
       <c r="M37" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N37" s="19">
         <f t="shared" si="14"/>
@@ -5259,38 +5259,38 @@
       </c>
       <c r="O37" s="7">
         <f t="shared" si="4"/>
-        <v>60.73</v>
+        <v>24.29</v>
       </c>
       <c r="P37" s="51">
         <f t="shared" si="5"/>
-        <v>62.25</v>
+        <v>24.9</v>
       </c>
       <c r="Q37" s="52">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="R37" s="55">
         <f t="shared" si="1"/>
-        <v>59.82</v>
+        <v>23.93</v>
       </c>
       <c r="S37" s="54">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="T37" s="24">
         <f t="shared" si="7"/>
-        <v>10.037398000000021</v>
+        <v>11.511339999999988</v>
       </c>
       <c r="Y37" s="40">
         <f>SUM(AG$3:AG36)</f>
-        <v>122</v>
+        <v>368</v>
       </c>
       <c r="Z37" s="43" t="s">
         <v>48</v>
       </c>
       <c r="AA37" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB37" s="45">
         <f t="shared" si="15"/>
@@ -5298,27 +5298,27 @@
       </c>
       <c r="AC37" s="46">
         <f t="shared" si="8"/>
-        <v>60.73</v>
+        <v>24.29</v>
       </c>
       <c r="AD37" s="46">
         <f t="shared" si="9"/>
-        <v>62.25</v>
+        <v>24.9</v>
       </c>
       <c r="AE37" s="40">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AF37" s="47">
         <f t="shared" si="11"/>
-        <v>59.82</v>
+        <v>23.93</v>
       </c>
       <c r="AG37" s="40">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AH37" s="41">
         <f t="shared" si="13"/>
-        <v>7.1695700000000153</v>
+        <v>8.0579379999999912</v>
       </c>
     </row>
     <row r="38" spans="11:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5327,11 +5327,11 @@
       </c>
       <c r="L38" s="6">
         <f>SUM(S$3:S37)</f>
-        <v>182</v>
+        <v>550</v>
       </c>
       <c r="M38" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N38" s="19">
         <f t="shared" si="14"/>
@@ -5339,38 +5339,38 @@
       </c>
       <c r="O38" s="7">
         <f t="shared" si="4"/>
-        <v>59.82</v>
+        <v>23.93</v>
       </c>
       <c r="P38" s="51">
         <f t="shared" si="5"/>
-        <v>61.32</v>
+        <v>24.53</v>
       </c>
       <c r="Q38" s="52">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="R38" s="55">
         <f t="shared" si="1"/>
-        <v>58.92</v>
+        <v>23.57</v>
       </c>
       <c r="S38" s="54">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="T38" s="24">
         <f t="shared" si="7"/>
-        <v>9.9064139999999998</v>
+        <v>11.321560000000028</v>
       </c>
       <c r="Y38" s="40">
         <f>SUM(AG$3:AG37)</f>
-        <v>127</v>
+        <v>382</v>
       </c>
       <c r="Z38" s="43" t="s">
         <v>49</v>
       </c>
       <c r="AA38" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB38" s="45">
         <f t="shared" si="15"/>
@@ -5378,27 +5378,27 @@
       </c>
       <c r="AC38" s="46">
         <f t="shared" si="8"/>
-        <v>59.82</v>
+        <v>23.93</v>
       </c>
       <c r="AD38" s="46">
         <f t="shared" si="9"/>
-        <v>61.32</v>
+        <v>24.53</v>
       </c>
       <c r="AE38" s="40">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AF38" s="47">
         <f t="shared" si="11"/>
-        <v>58.92</v>
+        <v>23.57</v>
       </c>
       <c r="AG38" s="40">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AH38" s="41">
         <f t="shared" si="13"/>
-        <v>7.0760100000000001</v>
+        <v>7.9250920000000198</v>
       </c>
     </row>
     <row r="39" spans="11:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5407,11 +5407,11 @@
       </c>
       <c r="L39" s="6">
         <f>SUM(S$3:S38)</f>
-        <v>189</v>
+        <v>570</v>
       </c>
       <c r="M39" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N39" s="19">
         <f t="shared" si="14"/>
@@ -5419,38 +5419,38 @@
       </c>
       <c r="O39" s="7">
         <f t="shared" si="4"/>
-        <v>58.92</v>
+        <v>23.57</v>
       </c>
       <c r="P39" s="51">
         <f t="shared" si="5"/>
-        <v>60.39</v>
+        <v>24.16</v>
       </c>
       <c r="Q39" s="52">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="R39" s="55">
         <f t="shared" si="1"/>
-        <v>58.04</v>
+        <v>23.22</v>
       </c>
       <c r="S39" s="54">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="T39" s="24">
         <f t="shared" si="7"/>
-        <v>9.705380999999992</v>
+        <v>11.131779999999997</v>
       </c>
       <c r="Y39" s="40">
         <f>SUM(AG$3:AG38)</f>
-        <v>132</v>
+        <v>396</v>
       </c>
       <c r="Z39" s="43" t="s">
         <v>50</v>
       </c>
       <c r="AA39" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB39" s="45">
         <f t="shared" si="15"/>
@@ -5458,27 +5458,27 @@
       </c>
       <c r="AC39" s="46">
         <f t="shared" si="8"/>
-        <v>58.92</v>
+        <v>23.57</v>
       </c>
       <c r="AD39" s="46">
         <f t="shared" si="9"/>
-        <v>60.39</v>
+        <v>24.16</v>
       </c>
       <c r="AE39" s="40">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AF39" s="47">
         <f t="shared" si="11"/>
-        <v>58.04</v>
+        <v>23.22</v>
       </c>
       <c r="AG39" s="40">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AH39" s="41">
         <f t="shared" si="13"/>
-        <v>6.9324149999999944</v>
+        <v>7.7922459999999978</v>
       </c>
     </row>
     <row r="40" spans="11:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5487,11 +5487,11 @@
       </c>
       <c r="L40" s="6">
         <f>SUM(S$3:S39)</f>
-        <v>196</v>
+        <v>591</v>
       </c>
       <c r="M40" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N40" s="19">
         <f t="shared" si="14"/>
@@ -5499,38 +5499,38 @@
       </c>
       <c r="O40" s="7">
         <f t="shared" si="4"/>
-        <v>58.04</v>
+        <v>23.22</v>
       </c>
       <c r="P40" s="51">
         <f t="shared" si="5"/>
-        <v>59.49</v>
+        <v>23.8</v>
       </c>
       <c r="Q40" s="52">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="R40" s="55">
         <f t="shared" si="1"/>
-        <v>57.17</v>
+        <v>22.87</v>
       </c>
       <c r="S40" s="54">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="T40" s="24">
         <f t="shared" si="7"/>
-        <v>9.5741030000000205</v>
+        <v>11.488806000000039</v>
       </c>
       <c r="Y40" s="40">
         <f>SUM(AG$3:AG39)</f>
-        <v>137</v>
+        <v>410</v>
       </c>
       <c r="Z40" s="43" t="s">
         <v>51</v>
       </c>
       <c r="AA40" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB40" s="45">
         <f t="shared" si="15"/>
@@ -5538,27 +5538,27 @@
       </c>
       <c r="AC40" s="46">
         <f t="shared" si="8"/>
-        <v>58.04</v>
+        <v>23.22</v>
       </c>
       <c r="AD40" s="46">
         <f t="shared" si="9"/>
-        <v>59.49</v>
+        <v>23.8</v>
       </c>
       <c r="AE40" s="40">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AF40" s="47">
         <f t="shared" si="11"/>
-        <v>57.17</v>
+        <v>22.87</v>
       </c>
       <c r="AG40" s="40">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AH40" s="41">
         <f t="shared" si="13"/>
-        <v>6.8386450000000139</v>
+        <v>7.6592040000000257</v>
       </c>
     </row>
     <row r="41" spans="11:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5567,11 +5567,11 @@
       </c>
       <c r="L41" s="6">
         <f>SUM(S$3:S40)</f>
-        <v>203</v>
+        <v>612</v>
       </c>
       <c r="M41" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N41" s="19">
         <f t="shared" si="14"/>
@@ -5579,38 +5579,38 @@
       </c>
       <c r="O41" s="7">
         <f t="shared" si="4"/>
-        <v>57.17</v>
+        <v>22.87</v>
       </c>
       <c r="P41" s="51">
         <f t="shared" si="5"/>
-        <v>58.6</v>
+        <v>23.44</v>
       </c>
       <c r="Q41" s="52">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="R41" s="55">
         <f t="shared" si="1"/>
-        <v>56.31</v>
+        <v>22.53</v>
       </c>
       <c r="S41" s="54">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="T41" s="24">
         <f t="shared" si="7"/>
-        <v>9.4427269999999979</v>
+        <v>11.289243000000006</v>
       </c>
       <c r="Y41" s="40">
         <f>SUM(AG$3:AG40)</f>
-        <v>142</v>
+        <v>425</v>
       </c>
       <c r="Z41" s="43" t="s">
         <v>52</v>
       </c>
       <c r="AA41" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB41" s="45">
         <f t="shared" si="15"/>
@@ -5618,27 +5618,27 @@
       </c>
       <c r="AC41" s="46">
         <f t="shared" si="8"/>
-        <v>57.17</v>
+        <v>22.87</v>
       </c>
       <c r="AD41" s="46">
         <f t="shared" si="9"/>
-        <v>58.6</v>
+        <v>23.44</v>
       </c>
       <c r="AE41" s="40">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AF41" s="47">
         <f t="shared" si="11"/>
-        <v>56.31</v>
+        <v>22.53</v>
       </c>
       <c r="AG41" s="40">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AH41" s="41">
         <f t="shared" si="13"/>
-        <v>6.7448049999999986</v>
+        <v>8.0637450000000044</v>
       </c>
     </row>
     <row r="42" spans="11:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5647,11 +5647,11 @@
       </c>
       <c r="L42" s="6">
         <f>SUM(S$3:S41)</f>
-        <v>210</v>
+        <v>633</v>
       </c>
       <c r="M42" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N42" s="19">
         <f t="shared" si="14"/>
@@ -5659,38 +5659,38 @@
       </c>
       <c r="O42" s="7">
         <f t="shared" si="4"/>
-        <v>56.31</v>
+        <v>22.53</v>
       </c>
       <c r="P42" s="51">
         <f t="shared" si="5"/>
-        <v>57.72</v>
+        <v>23.09</v>
       </c>
       <c r="Q42" s="52">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="R42" s="55">
         <f t="shared" si="1"/>
-        <v>55.47</v>
+        <v>22.19</v>
       </c>
       <c r="S42" s="54">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="T42" s="24">
         <f t="shared" si="7"/>
-        <v>9.3112529999999758</v>
+        <v>11.089385999999973</v>
       </c>
       <c r="Y42" s="40">
         <f>SUM(AG$3:AG41)</f>
-        <v>147</v>
+        <v>440</v>
       </c>
       <c r="Z42" s="43" t="s">
         <v>53</v>
       </c>
       <c r="AA42" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB42" s="45">
         <f t="shared" si="15"/>
@@ -5698,27 +5698,27 @@
       </c>
       <c r="AC42" s="46">
         <f t="shared" si="8"/>
-        <v>56.31</v>
+        <v>22.53</v>
       </c>
       <c r="AD42" s="46">
         <f t="shared" si="9"/>
-        <v>57.72</v>
+        <v>23.09</v>
       </c>
       <c r="AE42" s="40">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AF42" s="47">
         <f t="shared" si="11"/>
-        <v>55.47</v>
+        <v>22.19</v>
       </c>
       <c r="AG42" s="40">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AH42" s="41">
         <f t="shared" si="13"/>
-        <v>6.6508949999999825</v>
+        <v>7.9209899999999811</v>
       </c>
     </row>
     <row r="43" spans="11:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5727,11 +5727,11 @@
       </c>
       <c r="L43" s="6">
         <f>SUM(S$3:S42)</f>
-        <v>217</v>
+        <v>655</v>
       </c>
       <c r="M43" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N43" s="19">
         <f t="shared" si="14"/>
@@ -5739,38 +5739,38 @@
       </c>
       <c r="O43" s="7">
         <f t="shared" si="4"/>
-        <v>55.47</v>
+        <v>22.19</v>
       </c>
       <c r="P43" s="51">
         <f t="shared" si="5"/>
-        <v>56.86</v>
+        <v>22.74</v>
       </c>
       <c r="Q43" s="52">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="R43" s="55">
         <f t="shared" si="1"/>
-        <v>54.64</v>
+        <v>21.86</v>
       </c>
       <c r="S43" s="54">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="T43" s="24">
         <f t="shared" si="7"/>
-        <v>9.1795830000000045</v>
+        <v>11.408077999999938</v>
       </c>
       <c r="Y43" s="40">
         <f>SUM(AG$3:AG42)</f>
-        <v>152</v>
+        <v>455</v>
       </c>
       <c r="Z43" s="43" t="s">
         <v>54</v>
       </c>
       <c r="AA43" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB43" s="45">
         <f t="shared" si="15"/>
@@ -5778,27 +5778,27 @@
       </c>
       <c r="AC43" s="46">
         <f t="shared" si="8"/>
-        <v>55.47</v>
+        <v>22.19</v>
       </c>
       <c r="AD43" s="46">
         <f t="shared" si="9"/>
-        <v>56.86</v>
+        <v>22.74</v>
       </c>
       <c r="AE43" s="40">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AF43" s="47">
         <f t="shared" si="11"/>
-        <v>54.64</v>
+        <v>21.86</v>
       </c>
       <c r="AG43" s="40">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AH43" s="41">
         <f t="shared" si="13"/>
-        <v>6.5568450000000027</v>
+        <v>7.7782349999999569</v>
       </c>
     </row>
     <row r="44" spans="11:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5807,11 +5807,11 @@
       </c>
       <c r="L44" s="6">
         <f>SUM(S$3:S43)</f>
-        <v>224</v>
+        <v>677</v>
       </c>
       <c r="M44" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N44" s="19">
         <f t="shared" si="14"/>
@@ -5819,38 +5819,38 @@
       </c>
       <c r="O44" s="7">
         <f t="shared" si="4"/>
-        <v>54.64</v>
+        <v>21.86</v>
       </c>
       <c r="P44" s="51">
         <f t="shared" si="5"/>
-        <v>56.01</v>
+        <v>22.41</v>
       </c>
       <c r="Q44" s="52">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="R44" s="55">
         <f t="shared" si="1"/>
-        <v>53.82</v>
+        <v>21.53</v>
       </c>
       <c r="S44" s="54">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="T44" s="24">
         <f t="shared" si="7"/>
-        <v>9.0478149999999822</v>
+        <v>11.418242000000015</v>
       </c>
       <c r="Y44" s="40">
         <f>SUM(AG$3:AG43)</f>
-        <v>157</v>
+        <v>470</v>
       </c>
       <c r="Z44" s="43" t="s">
         <v>55</v>
       </c>
       <c r="AA44" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB44" s="45">
         <f t="shared" si="15"/>
@@ -5858,27 +5858,27 @@
       </c>
       <c r="AC44" s="46">
         <f t="shared" si="8"/>
-        <v>54.64</v>
+        <v>21.86</v>
       </c>
       <c r="AD44" s="46">
         <f t="shared" si="9"/>
-        <v>56.01</v>
+        <v>22.41</v>
       </c>
       <c r="AE44" s="40">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AF44" s="47">
         <f t="shared" si="11"/>
-        <v>53.82</v>
+        <v>21.53</v>
       </c>
       <c r="AG44" s="40">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AH44" s="41">
         <f t="shared" si="13"/>
-        <v>6.4627249999999874</v>
+        <v>7.7851650000000108</v>
       </c>
     </row>
     <row r="45" spans="11:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5887,11 +5887,11 @@
       </c>
       <c r="L45" s="6">
         <f>SUM(S$3:S44)</f>
-        <v>231</v>
+        <v>699</v>
       </c>
       <c r="M45" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N45" s="19">
         <f t="shared" si="14"/>
@@ -5899,38 +5899,38 @@
       </c>
       <c r="O45" s="7">
         <f t="shared" si="4"/>
-        <v>53.82</v>
+        <v>21.53</v>
       </c>
       <c r="P45" s="51">
         <f t="shared" si="5"/>
-        <v>55.17</v>
+        <v>22.07</v>
       </c>
       <c r="Q45" s="52">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="R45" s="55">
         <f t="shared" si="1"/>
-        <v>53.01</v>
+        <v>21.21</v>
       </c>
       <c r="S45" s="54">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="T45" s="24">
         <f t="shared" si="7"/>
-        <v>8.9159490000000101</v>
+        <v>11.208559999999981</v>
       </c>
       <c r="Y45" s="40">
         <f>SUM(AG$3:AG44)</f>
-        <v>162</v>
+        <v>485</v>
       </c>
       <c r="Z45" s="43" t="s">
         <v>56</v>
       </c>
       <c r="AA45" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB45" s="45">
         <f t="shared" si="15"/>
@@ -5938,27 +5938,27 @@
       </c>
       <c r="AC45" s="46">
         <f t="shared" si="8"/>
-        <v>53.82</v>
+        <v>21.53</v>
       </c>
       <c r="AD45" s="46">
         <f t="shared" si="9"/>
-        <v>55.17</v>
+        <v>22.07</v>
       </c>
       <c r="AE45" s="40">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AF45" s="47">
         <f t="shared" si="11"/>
-        <v>53.01</v>
+        <v>21.21</v>
       </c>
       <c r="AG45" s="40">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AH45" s="41">
         <f t="shared" si="13"/>
-        <v>6.3685350000000067</v>
+        <v>7.6421999999999874</v>
       </c>
     </row>
     <row r="46" spans="11:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5967,11 +5967,11 @@
       </c>
       <c r="L46" s="6">
         <f>SUM(S$3:S45)</f>
-        <v>239</v>
+        <v>722</v>
       </c>
       <c r="M46" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N46" s="19">
         <f t="shared" si="14"/>
@@ -5979,38 +5979,38 @@
       </c>
       <c r="O46" s="7">
         <f t="shared" si="4"/>
-        <v>53.01</v>
+        <v>21.21</v>
       </c>
       <c r="P46" s="51">
         <f t="shared" si="5"/>
-        <v>54.34</v>
+        <v>21.74</v>
       </c>
       <c r="Q46" s="52">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="R46" s="55">
         <f t="shared" si="1"/>
-        <v>52.21</v>
+        <v>20.89</v>
       </c>
       <c r="S46" s="54">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="T46" s="24">
         <f t="shared" si="7"/>
-        <v>10.038840000000043</v>
+        <v>11.498504999999945</v>
       </c>
       <c r="Y46" s="40">
         <f>SUM(AG$3:AG45)</f>
-        <v>167</v>
+        <v>501</v>
       </c>
       <c r="Z46" s="43" t="s">
         <v>57</v>
       </c>
       <c r="AA46" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB46" s="45">
         <f t="shared" si="15"/>
@@ -6018,27 +6018,27 @@
       </c>
       <c r="AC46" s="46">
         <f t="shared" si="8"/>
-        <v>53.01</v>
+        <v>21.21</v>
       </c>
       <c r="AD46" s="46">
         <f t="shared" si="9"/>
-        <v>54.34</v>
+        <v>21.74</v>
       </c>
       <c r="AE46" s="40">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AF46" s="47">
         <f t="shared" si="11"/>
-        <v>52.21</v>
+        <v>20.89</v>
       </c>
       <c r="AG46" s="40">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AH46" s="41">
         <f t="shared" si="13"/>
-        <v>6.2742750000000269</v>
+        <v>7.9989599999999612</v>
       </c>
     </row>
     <row r="47" spans="11:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6047,11 +6047,11 @@
       </c>
       <c r="L47" s="6">
         <f>SUM(S$3:S46)</f>
-        <v>247</v>
+        <v>745</v>
       </c>
       <c r="M47" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N47" s="19">
         <f t="shared" si="14"/>
@@ -6059,38 +6059,38 @@
       </c>
       <c r="O47" s="7">
         <f t="shared" si="4"/>
-        <v>52.21</v>
+        <v>20.89</v>
       </c>
       <c r="P47" s="51">
         <f t="shared" si="5"/>
-        <v>53.52</v>
+        <v>21.41</v>
       </c>
       <c r="Q47" s="52">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="R47" s="55">
         <f t="shared" si="1"/>
-        <v>51.43</v>
+        <v>20.58</v>
       </c>
       <c r="S47" s="54">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="T47" s="24">
         <f t="shared" si="7"/>
-        <v>9.8879120000000178</v>
+        <v>11.27896999999999</v>
       </c>
       <c r="Y47" s="40">
         <f>SUM(AG$3:AG46)</f>
-        <v>172</v>
+        <v>517</v>
       </c>
       <c r="Z47" s="43" t="s">
         <v>58</v>
       </c>
       <c r="AA47" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB47" s="45">
         <f t="shared" si="15"/>
@@ -6098,27 +6098,27 @@
       </c>
       <c r="AC47" s="46">
         <f t="shared" si="8"/>
-        <v>52.21</v>
+        <v>20.89</v>
       </c>
       <c r="AD47" s="46">
         <f t="shared" si="9"/>
-        <v>53.52</v>
+        <v>21.41</v>
       </c>
       <c r="AE47" s="40">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AF47" s="47">
         <f t="shared" si="11"/>
-        <v>51.43</v>
+        <v>20.58</v>
       </c>
       <c r="AG47" s="40">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AH47" s="41">
         <f t="shared" si="13"/>
-        <v>6.1799450000000116</v>
+        <v>7.8462399999999928</v>
       </c>
     </row>
     <row r="48" spans="11:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6127,11 +6127,11 @@
       </c>
       <c r="L48" s="6">
         <f>SUM(S$3:S47)</f>
-        <v>255</v>
+        <v>768</v>
       </c>
       <c r="M48" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N48" s="19">
         <f t="shared" si="14"/>
@@ -6139,38 +6139,38 @@
       </c>
       <c r="O48" s="7">
         <f t="shared" si="4"/>
-        <v>51.43</v>
+        <v>20.58</v>
       </c>
       <c r="P48" s="51">
         <f t="shared" si="5"/>
-        <v>52.72</v>
+        <v>21.09</v>
       </c>
       <c r="Q48" s="52">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="R48" s="55">
         <f t="shared" si="1"/>
-        <v>50.66</v>
+        <v>20.27</v>
       </c>
       <c r="S48" s="54">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="T48" s="24">
         <f t="shared" si="7"/>
-        <v>9.7367599999999932</v>
+        <v>11.059113000000035</v>
       </c>
       <c r="Y48" s="40">
         <f>SUM(AG$3:AG47)</f>
-        <v>177</v>
+        <v>533</v>
       </c>
       <c r="Z48" s="43" t="s">
         <v>59</v>
       </c>
       <c r="AA48" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB48" s="45">
         <f t="shared" si="15"/>
@@ -6178,27 +6178,27 @@
       </c>
       <c r="AC48" s="46">
         <f t="shared" si="8"/>
-        <v>51.43</v>
+        <v>20.58</v>
       </c>
       <c r="AD48" s="46">
         <f t="shared" si="9"/>
-        <v>52.72</v>
+        <v>21.09</v>
       </c>
       <c r="AE48" s="40">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AF48" s="47">
         <f t="shared" si="11"/>
-        <v>50.66</v>
+        <v>20.27</v>
       </c>
       <c r="AG48" s="40">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AH48" s="41">
         <f t="shared" si="13"/>
-        <v>6.0854749999999953</v>
+        <v>7.693296000000025</v>
       </c>
     </row>
     <row r="49" spans="11:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6207,11 +6207,11 @@
       </c>
       <c r="L49" s="6">
         <f>SUM(S$3:S48)</f>
-        <v>263</v>
+        <v>792</v>
       </c>
       <c r="M49" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N49" s="19">
         <f t="shared" si="14"/>
@@ -6219,38 +6219,38 @@
       </c>
       <c r="O49" s="7">
         <f t="shared" si="4"/>
-        <v>50.66</v>
+        <v>20.27</v>
       </c>
       <c r="P49" s="51">
         <f t="shared" si="5"/>
-        <v>51.93</v>
+        <v>20.78</v>
       </c>
       <c r="Q49" s="52">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="R49" s="55">
         <f t="shared" si="1"/>
-        <v>49.9</v>
+        <v>19.97</v>
       </c>
       <c r="S49" s="54">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="T49" s="24">
         <f t="shared" si="7"/>
-        <v>9.585496000000024</v>
+        <v>11.550360000000037</v>
       </c>
       <c r="Y49" s="40">
         <f>SUM(AG$3:AG48)</f>
-        <v>182</v>
+        <v>549</v>
       </c>
       <c r="Z49" s="43" t="s">
         <v>60</v>
       </c>
       <c r="AA49" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB49" s="45">
         <f t="shared" si="15"/>
@@ -6258,27 +6258,27 @@
       </c>
       <c r="AC49" s="46">
         <f t="shared" si="8"/>
-        <v>50.66</v>
+        <v>20.27</v>
       </c>
       <c r="AD49" s="46">
         <f t="shared" si="9"/>
-        <v>51.93</v>
+        <v>20.78</v>
       </c>
       <c r="AE49" s="40">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AF49" s="47">
         <f t="shared" si="11"/>
-        <v>49.9</v>
+        <v>19.97</v>
       </c>
       <c r="AG49" s="40">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AH49" s="41">
         <f t="shared" si="13"/>
-        <v>5.9909350000000154</v>
+        <v>7.7002400000000248</v>
       </c>
     </row>
     <row r="50" spans="11:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6287,11 +6287,11 @@
       </c>
       <c r="L50" s="6">
         <f>SUM(S$3:S49)</f>
-        <v>271</v>
+        <v>816</v>
       </c>
       <c r="M50" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N50" s="19">
         <f t="shared" si="14"/>
@@ -6299,38 +6299,38 @@
       </c>
       <c r="O50" s="7">
         <f t="shared" si="4"/>
-        <v>49.9</v>
+        <v>19.97</v>
       </c>
       <c r="P50" s="51">
         <f t="shared" si="5"/>
-        <v>51.15</v>
+        <v>20.47</v>
       </c>
       <c r="Q50" s="52">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="R50" s="55">
         <f t="shared" si="1"/>
-        <v>49.15</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="S50" s="54">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="T50" s="24">
         <f t="shared" si="7"/>
-        <v>9.4341200000000001</v>
+        <v>11.320608</v>
       </c>
       <c r="Y50" s="40">
         <f>SUM(AG$3:AG49)</f>
-        <v>188</v>
+        <v>566</v>
       </c>
       <c r="Z50" s="43" t="s">
         <v>61</v>
       </c>
       <c r="AA50" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB50" s="45">
         <f t="shared" si="15"/>
@@ -6338,27 +6338,27 @@
       </c>
       <c r="AC50" s="46">
         <f t="shared" si="8"/>
-        <v>49.9</v>
+        <v>19.97</v>
       </c>
       <c r="AD50" s="46">
         <f t="shared" si="9"/>
-        <v>51.15</v>
+        <v>20.47</v>
       </c>
       <c r="AE50" s="40">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AF50" s="47">
         <f t="shared" si="11"/>
-        <v>49.15</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="AG50" s="40">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AH50" s="41">
         <f t="shared" si="13"/>
-        <v>7.07559</v>
+        <v>8.0187639999999991</v>
       </c>
     </row>
     <row r="51" spans="11:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6367,11 +6367,11 @@
       </c>
       <c r="L51" s="6">
         <f>SUM(S$3:S50)</f>
-        <v>279</v>
+        <v>840</v>
       </c>
       <c r="M51" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N51" s="19">
         <f t="shared" si="14"/>
@@ -6379,38 +6379,38 @@
       </c>
       <c r="O51" s="7">
         <f t="shared" si="4"/>
-        <v>49.15</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="P51" s="51">
         <f t="shared" si="5"/>
-        <v>50.38</v>
+        <v>20.16</v>
       </c>
       <c r="Q51" s="52">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="R51" s="55">
         <f t="shared" si="1"/>
-        <v>48.41</v>
+        <v>19.37</v>
       </c>
       <c r="S51" s="54">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="T51" s="24">
         <f t="shared" si="7"/>
-        <v>9.2826320000000315</v>
+        <v>11.090855999999963</v>
       </c>
       <c r="Y51" s="40">
         <f>SUM(AG$3:AG50)</f>
-        <v>194</v>
+        <v>583</v>
       </c>
       <c r="Z51" s="43" t="s">
         <v>62</v>
       </c>
       <c r="AA51" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB51" s="45">
         <f t="shared" si="15"/>
@@ -6418,27 +6418,27 @@
       </c>
       <c r="AC51" s="46">
         <f t="shared" si="8"/>
-        <v>49.15</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="AD51" s="46">
         <f t="shared" si="9"/>
-        <v>50.38</v>
+        <v>20.16</v>
       </c>
       <c r="AE51" s="40">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AF51" s="47">
         <f t="shared" si="11"/>
-        <v>48.41</v>
+        <v>19.37</v>
       </c>
       <c r="AG51" s="40">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AH51" s="41">
         <f t="shared" si="13"/>
-        <v>6.9619740000000236</v>
+        <v>7.8560229999999738</v>
       </c>
     </row>
     <row r="52" spans="11:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6447,11 +6447,11 @@
       </c>
       <c r="L52" s="6">
         <f>SUM(S$3:S51)</f>
-        <v>287</v>
+        <v>865</v>
       </c>
       <c r="M52" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N52" s="19">
         <f t="shared" si="14"/>
@@ -6459,38 +6459,38 @@
       </c>
       <c r="O52" s="7">
         <f t="shared" si="4"/>
-        <v>48.41</v>
+        <v>19.37</v>
       </c>
       <c r="P52" s="51">
         <f t="shared" si="5"/>
-        <v>49.62</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="Q52" s="52">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="R52" s="55">
         <f t="shared" si="1"/>
-        <v>47.68</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="S52" s="54">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="T52" s="24">
         <f t="shared" si="7"/>
-        <v>9.1310320000000065</v>
+        <v>11.31365000000001</v>
       </c>
       <c r="Y52" s="40">
         <f>SUM(AG$3:AG51)</f>
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="Z52" s="43" t="s">
         <v>63</v>
       </c>
       <c r="AA52" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB52" s="45">
         <f t="shared" si="15"/>
@@ -6498,27 +6498,27 @@
       </c>
       <c r="AC52" s="46">
         <f t="shared" si="8"/>
-        <v>48.41</v>
+        <v>19.37</v>
       </c>
       <c r="AD52" s="46">
         <f t="shared" si="9"/>
-        <v>49.62</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="AE52" s="40">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AF52" s="47">
         <f t="shared" si="11"/>
-        <v>47.68</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="AG52" s="40">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AH52" s="41">
         <f t="shared" si="13"/>
-        <v>6.8482740000000053</v>
+        <v>7.6932820000000071</v>
       </c>
     </row>
     <row r="53" spans="11:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6527,11 +6527,11 @@
       </c>
       <c r="L53" s="6">
         <f>SUM(S$3:S52)</f>
-        <v>295</v>
+        <v>890</v>
       </c>
       <c r="M53" s="15">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N53" s="19">
         <f t="shared" si="14"/>
@@ -6539,19 +6539,19 @@
       </c>
       <c r="O53" s="7">
         <f t="shared" si="4"/>
-        <v>47.68</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="P53" s="51">
         <f t="shared" si="5"/>
-        <v>48.87</v>
+        <v>19.559999999999999</v>
       </c>
       <c r="Q53" s="52">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="R53" s="55">
         <f>ROUND(O53*(N54+1),2)</f>
-        <v>47.68</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="S53" s="54">
         <f>ROUND(M54/R53,0)</f>
@@ -6559,18 +6559,18 @@
       </c>
       <c r="T53" s="24">
         <f t="shared" si="7"/>
-        <v>8.9793199999999818</v>
+        <v>11.323800000000011</v>
       </c>
       <c r="Y53" s="40">
         <f>SUM(AG$3:AG52)</f>
-        <v>206</v>
+        <v>617</v>
       </c>
       <c r="Z53" s="43" t="s">
         <v>64</v>
       </c>
       <c r="AA53" s="44">
         <f t="shared" si="2"/>
-        <v>277.77777777777777</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AB53" s="45">
         <f t="shared" si="15"/>
@@ -6578,19 +6578,19 @@
       </c>
       <c r="AC53" s="46">
         <f t="shared" si="8"/>
-        <v>47.68</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="AD53" s="46">
         <f t="shared" si="9"/>
-        <v>48.87</v>
+        <v>19.559999999999999</v>
       </c>
       <c r="AE53" s="40">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AF53" s="47">
         <f>ROUND(AC53*(AB54+1),2)</f>
-        <v>47.68</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="AG53" s="40">
         <f>ROUND(AA54/AF53,0)</f>
@@ -6598,7 +6598,7 @@
       </c>
       <c r="AH53" s="41">
         <f t="shared" si="13"/>
-        <v>6.7344899999999868</v>
+        <v>7.7001840000000072</v>
       </c>
     </row>
     <row r="54" spans="11:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">

--- a/Avatar_Excel.xlsx
+++ b/Avatar_Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MK\Desktop\Git\Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F68FC4-B4F6-4750-A87F-48031CBB30AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F3E3B1-DE4C-41F1-B453-75C8DE8724AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32025" yWindow="3600" windowWidth="38400" windowHeight="12345" xr2:uid="{28AF4D6A-79B6-4A32-920C-87AF5D4B5EE8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{28AF4D6A-79B6-4A32-920C-87AF5D4B5EE8}"/>
   </bookViews>
   <sheets>
     <sheet name="7티어" sheetId="5" r:id="rId1"/>
@@ -888,6 +888,178 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57F021D0-0021-4997-A53C-931B648BD24B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181351" y="2571751"/>
+          <a:ext cx="5695950" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3743012" cy="713272"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7388183E-176F-4CC9-BACF-496811A5F47B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3124200" y="4610100"/>
+          <a:ext cx="3743012" cy="713272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>6~13</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>티어는 하락장에서 매수만 합니다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>많이 하락할수록 큰 반등이 오기 때문이겠죠</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>?</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1259,7 +1431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBF4859-7F2A-4BF6-8758-2073C0FC7E3F}">
   <dimension ref="B2:AB13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -1639,8 +1811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8F8485-8E02-47D1-9B79-96D42ADC7F29}">
   <dimension ref="B2:AB19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1677,7 +1849,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="8">
-        <v>30000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:28" ht="13.5" x14ac:dyDescent="0.25">
@@ -1744,20 +1916,20 @@
       </c>
       <c r="L6" s="16">
         <f t="shared" ref="L6:L12" si="0">ROUND(F7/K6,0)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D7" s="5">
         <f>SUM(L$6:L6)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="15">
         <f>$E$2/6</f>
-        <v>5000</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>65</v>
@@ -1772,7 +1944,7 @@
       </c>
       <c r="J7" s="23">
         <f>L6</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K7" s="18">
         <f>ROUND(H7*(G8+1),2)</f>
@@ -1780,20 +1952,20 @@
       </c>
       <c r="L7" s="16">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D8" s="5">
         <f>SUM(L$6:L7)</f>
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="15">
         <f>$E$2/12</f>
-        <v>2500</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="G8" s="20">
         <v>-0.02</v>
@@ -1808,7 +1980,7 @@
       </c>
       <c r="J8" s="23">
         <f t="shared" ref="J8:J12" si="2">L7</f>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="K8" s="18">
         <f t="shared" ref="K8:K12" si="3">ROUND(H8*(G9+1),2)</f>
@@ -1816,20 +1988,20 @@
       </c>
       <c r="L8" s="16">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="5">
         <f>SUM(L$6:L8)</f>
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" ref="F9:F15" si="4">$E$2/12</f>
-        <v>2500</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="G9" s="20">
         <v>-0.02</v>
@@ -1844,7 +2016,7 @@
       </c>
       <c r="J9" s="23">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="K9" s="18">
         <f t="shared" si="3"/>
@@ -1852,20 +2024,20 @@
       </c>
       <c r="L9" s="16">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" s="5">
         <f>SUM(L$6:L9)</f>
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="15">
         <f t="shared" si="4"/>
-        <v>2500</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="G10" s="20">
         <v>-2.5000000000000001E-2</v>
@@ -1880,7 +2052,7 @@
       </c>
       <c r="J10" s="23">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="K10" s="18">
         <f t="shared" si="3"/>
@@ -1888,7 +2060,7 @@
       </c>
       <c r="L10" s="16">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="M10" s="14"/>
       <c r="O10" s="14"/>
@@ -1903,14 +2075,14 @@
     <row r="11" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" s="5">
         <f>SUM(L$6:L10)</f>
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="15">
         <f t="shared" si="4"/>
-        <v>2500</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="G11" s="20">
         <v>-2.5000000000000001E-2</v>
@@ -1925,7 +2097,7 @@
       </c>
       <c r="J11" s="23">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" si="3"/>
@@ -1933,21 +2105,21 @@
       </c>
       <c r="L11" s="16">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="N11" s="14"/>
     </row>
     <row r="12" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" s="5">
         <f>SUM(L$6:L11)</f>
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="15">
         <f t="shared" si="4"/>
-        <v>2500</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="G12" s="20">
         <v>-0.03</v>
@@ -1962,7 +2134,7 @@
       </c>
       <c r="J12" s="23">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K12" s="18">
         <f t="shared" si="3"/>
@@ -1970,20 +2142,20 @@
       </c>
       <c r="L12" s="16">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="5">
         <f>SUM(L$6:L12)</f>
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="15">
         <f t="shared" si="4"/>
-        <v>2500</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="G13" s="20">
         <v>-0.03</v>
@@ -1998,7 +2170,7 @@
       </c>
       <c r="J13" s="23">
         <f>L12+J12</f>
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K13" s="18">
         <f>ROUND(H13*(G14+1),2)</f>
@@ -2006,20 +2178,20 @@
       </c>
       <c r="L13" s="16">
         <f>ROUND(F14/K13,0)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" s="5">
         <f>SUM(L$6:L13)</f>
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="15">
         <f t="shared" si="4"/>
-        <v>2500</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="G14" s="20">
         <v>-3.5000000000000003E-2</v>
@@ -2034,7 +2206,7 @@
       </c>
       <c r="J14" s="23">
         <f t="shared" ref="J14:J19" si="7">L13+J13</f>
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="K14" s="18">
         <f t="shared" ref="K14:K19" si="8">ROUND(H14*(G15+1),2)</f>
@@ -2042,20 +2214,20 @@
       </c>
       <c r="L14" s="16">
         <f t="shared" ref="L14:L19" si="9">ROUND(F15/K14,0)</f>
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D15" s="5">
         <f>SUM(L$6:L14)</f>
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="15">
         <f t="shared" si="4"/>
-        <v>2500</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="G15" s="20">
         <v>-3.5000000000000003E-2</v>
@@ -2070,7 +2242,7 @@
       </c>
       <c r="J15" s="23">
         <f t="shared" si="7"/>
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="K15" s="18">
         <f t="shared" si="8"/>
@@ -2078,20 +2250,20 @@
       </c>
       <c r="L15" s="16">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="5">
         <f>SUM(L$6:L15)</f>
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="15">
         <f>$E$2/24</f>
-        <v>1250</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="G16" s="20">
         <v>-6.5000000000000002E-2</v>
@@ -2106,7 +2278,7 @@
       </c>
       <c r="J16" s="23">
         <f t="shared" si="7"/>
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="K16" s="18">
         <f t="shared" si="8"/>
@@ -2114,20 +2286,20 @@
       </c>
       <c r="L16" s="16">
         <f t="shared" si="9"/>
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" s="5">
         <f>SUM(L$6:L16)</f>
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="15">
         <f t="shared" ref="F17:F19" si="10">$E$2/24</f>
-        <v>1250</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="G17" s="20">
         <v>-6.5000000000000002E-2</v>
@@ -2142,7 +2314,7 @@
       </c>
       <c r="J17" s="23">
         <f t="shared" si="7"/>
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="K17" s="18">
         <f t="shared" si="8"/>
@@ -2150,20 +2322,20 @@
       </c>
       <c r="L17" s="16">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="5">
         <f>SUM(L$6:L17)</f>
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="15">
         <f t="shared" si="10"/>
-        <v>1250</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="G18" s="20">
         <v>-9.5000000000000001E-2</v>
@@ -2178,7 +2350,7 @@
       </c>
       <c r="J18" s="23">
         <f t="shared" si="7"/>
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" si="8"/>
@@ -2186,20 +2358,20 @@
       </c>
       <c r="L18" s="16">
         <f t="shared" si="9"/>
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D19" s="5">
         <f>SUM(L$6:L18)</f>
-        <v>351</v>
+        <v>0</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F19" s="15">
         <f t="shared" si="10"/>
-        <v>1250</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="G19" s="20">
         <v>-9.5000000000000001E-2</v>
@@ -2214,7 +2386,7 @@
       </c>
       <c r="J19" s="23">
         <f t="shared" si="7"/>
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="K19" s="18">
         <f t="shared" si="8"/>
@@ -2232,6 +2404,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2240,7 +2413,7 @@
   <dimension ref="C2:AH75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Avatar_Excel.xlsx
+++ b/Avatar_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MK\Desktop\Git\Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F3E3B1-DE4C-41F1-B453-75C8DE8724AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C90B8BB-CF1B-4F79-B8B4-D3FD8351CFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{28AF4D6A-79B6-4A32-920C-87AF5D4B5EE8}"/>
+    <workbookView xWindow="19305" yWindow="4095" windowWidth="38400" windowHeight="12345" xr2:uid="{28AF4D6A-79B6-4A32-920C-87AF5D4B5EE8}"/>
   </bookViews>
   <sheets>
     <sheet name="7티어" sheetId="5" r:id="rId1"/>
@@ -1431,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBF4859-7F2A-4BF6-8758-2073C0FC7E3F}">
   <dimension ref="B2:AB13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1811,8 +1811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8F8485-8E02-47D1-9B79-96D42ADC7F29}">
   <dimension ref="B2:AB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2412,8 +2412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DD10C0-E1A8-4A88-8899-7356A89A7E74}">
   <dimension ref="C2:AH75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2486,7 +2486,7 @@
         <v>72</v>
       </c>
       <c r="W2" s="37">
-        <f>AC4/(VLOOKUP(D10,Z4:AC13,4,0))-1</f>
+        <f>AC4/(VLOOKUP(D10,Z4:AC33,4,0))-1</f>
         <v>0</v>
       </c>
       <c r="Y2" s="38" t="s">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="32">
-        <f>VLOOKUP(D10,K4:L13,2,0)</f>
+        <f>VLOOKUP(D10,K4:L33,2,0)</f>
         <v>12</v>
       </c>
       <c r="G10" s="26"/>
@@ -7271,7 +7271,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10" xr:uid="{0DFA0319-682F-4ACB-9EA5-E3BE69FAA607}">
-      <formula1>$Z$4:$Z$13</formula1>
+      <formula1>$Z$4:$Z$33</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
